--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D358"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,13 +5249,13 @@
         <v>44896</v>
       </c>
       <c r="B356" t="n">
-        <v>2078216900000</v>
+        <v>2078216858000</v>
       </c>
       <c r="C356" t="n">
         <v>0.2284983091125126</v>
       </c>
       <c r="D356" t="n">
-        <v>474869047619.0476</v>
+        <v>474869038022.1187</v>
       </c>
     </row>
     <row r="357">
@@ -5263,13 +5263,13 @@
         <v>44927</v>
       </c>
       <c r="B357" t="n">
-        <v>2082184000000</v>
+        <v>2082183969000</v>
       </c>
       <c r="C357" t="n">
         <v>0.2308455873865971</v>
       </c>
       <c r="D357" t="n">
-        <v>480662988526.9743</v>
+        <v>480662981370.7611</v>
       </c>
     </row>
     <row r="358">
@@ -5277,13 +5277,55 @@
         <v>44958</v>
       </c>
       <c r="B358" t="n">
-        <v>2118202300000</v>
+        <v>2118202312000</v>
       </c>
       <c r="C358" t="n">
         <v>0.2250528874285457</v>
       </c>
       <c r="D358" t="n">
-        <v>476707543772.7867</v>
+        <v>476707546473.4213</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2121975670000</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.2319647413593134</v>
+      </c>
+      <c r="D359" t="n">
+        <v>492223537462.3057</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2135028350000</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.240610187435336</v>
+      </c>
+      <c r="D360" t="n">
+        <v>513709571473.2562</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2140971740000</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.2359826316783085</v>
+      </c>
+      <c r="D361" t="n">
+        <v>505232145554.0873</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5235,13 +5235,13 @@
         <v>44866</v>
       </c>
       <c r="B355" t="n">
-        <v>2068678100000</v>
+        <v>2068678071000</v>
       </c>
       <c r="C355" t="n">
         <v>0.2230450104831155</v>
       </c>
       <c r="D355" t="n">
-        <v>461408328500.6915</v>
+        <v>461408322032.3862</v>
       </c>
     </row>
     <row r="356">
@@ -5291,13 +5291,13 @@
         <v>44986</v>
       </c>
       <c r="B359" t="n">
-        <v>2121975670000</v>
+        <v>2121975673000</v>
       </c>
       <c r="C359" t="n">
         <v>0.2319647413593134</v>
       </c>
       <c r="D359" t="n">
-        <v>492223537462.3057</v>
+        <v>492223538158.2</v>
       </c>
     </row>
     <row r="360">
@@ -5305,13 +5305,13 @@
         <v>45017</v>
       </c>
       <c r="B360" t="n">
-        <v>2135028350000</v>
+        <v>2135028349000</v>
       </c>
       <c r="C360" t="n">
         <v>0.240610187435336</v>
       </c>
       <c r="D360" t="n">
-        <v>513709571473.2562</v>
+        <v>513709571232.6459</v>
       </c>
     </row>
     <row r="361">
@@ -5326,6 +5326,20 @@
       </c>
       <c r="D361" t="n">
         <v>505232145554.0873</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2139841737000</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.2462544695186218</v>
+      </c>
+      <c r="D362" t="n">
+        <v>526945591798.7412</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D362"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,13 +881,13 @@
         <v>35400</v>
       </c>
       <c r="B44" t="n">
-        <v>140038700000</v>
+        <v>140038726000</v>
       </c>
       <c r="C44" t="n">
         <v>0.3485049114901728</v>
       </c>
       <c r="D44" t="n">
-        <v>48804174748.69886</v>
+        <v>48804183809.82655</v>
       </c>
     </row>
     <row r="45">
@@ -895,13 +895,13 @@
         <v>35431</v>
       </c>
       <c r="B45" t="n">
-        <v>138755500000</v>
+        <v>138755527000</v>
       </c>
       <c r="C45" t="n">
         <v>0.3331667621683638</v>
       </c>
       <c r="D45" t="n">
-        <v>46228720668.0524</v>
+        <v>46228729663.55498</v>
       </c>
     </row>
     <row r="46">
@@ -909,13 +909,13 @@
         <v>35462</v>
       </c>
       <c r="B46" t="n">
-        <v>141142500000</v>
+        <v>141142528000</v>
       </c>
       <c r="C46" t="n">
         <v>0.3269362715680185</v>
       </c>
       <c r="D46" t="n">
-        <v>46144602709.78905</v>
+        <v>46144611864.00466</v>
       </c>
     </row>
     <row r="47">
@@ -923,13 +923,13 @@
         <v>35490</v>
       </c>
       <c r="B47" t="n">
-        <v>144080800000</v>
+        <v>144080767000</v>
       </c>
       <c r="C47" t="n">
         <v>0.3252561307463033</v>
       </c>
       <c r="D47" t="n">
-        <v>46863163522.83198</v>
+        <v>46863152789.37967</v>
       </c>
     </row>
     <row r="48">
@@ -937,13 +937,13 @@
         <v>35521</v>
       </c>
       <c r="B48" t="n">
-        <v>147471800000</v>
+        <v>147471792000</v>
       </c>
       <c r="C48" t="n">
         <v>0.3161555375349007</v>
       </c>
       <c r="D48" t="n">
-        <v>46624026200.23936</v>
+        <v>46624023670.99506</v>
       </c>
     </row>
     <row r="49">
@@ -951,13 +951,13 @@
         <v>35551</v>
       </c>
       <c r="B49" t="n">
-        <v>151110600000</v>
+        <v>151110561000</v>
       </c>
       <c r="C49" t="n">
         <v>0.3118957137506973</v>
       </c>
       <c r="D49" t="n">
-        <v>47130748442.29612</v>
+        <v>47130736278.36328</v>
       </c>
     </row>
     <row r="50">
@@ -965,13 +965,13 @@
         <v>35582</v>
       </c>
       <c r="B50" t="n">
-        <v>154073600000</v>
+        <v>154073607000</v>
       </c>
       <c r="C50" t="n">
         <v>0.3042750665101175</v>
       </c>
       <c r="D50" t="n">
-        <v>46880754887.45325</v>
+        <v>46880757017.37872</v>
       </c>
     </row>
     <row r="51">
@@ -979,13 +979,13 @@
         <v>35612</v>
       </c>
       <c r="B51" t="n">
-        <v>160056300000</v>
+        <v>160056307000</v>
       </c>
       <c r="C51" t="n">
         <v>0.2885586395535891</v>
       </c>
       <c r="D51" t="n">
-        <v>46185628179.98112</v>
+        <v>46185630199.8916</v>
       </c>
     </row>
     <row r="52">
@@ -993,13 +993,13 @@
         <v>35643</v>
       </c>
       <c r="B52" t="n">
-        <v>162082200000</v>
+        <v>162082221000</v>
       </c>
       <c r="C52" t="n">
         <v>0.2877863383053709</v>
       </c>
       <c r="D52" t="n">
-        <v>46645042842.47879</v>
+        <v>46645048885.9919</v>
       </c>
     </row>
     <row r="53">
@@ -1007,13 +1007,13 @@
         <v>35674</v>
       </c>
       <c r="B53" t="n">
-        <v>164710200000</v>
+        <v>164710229000</v>
       </c>
       <c r="C53" t="n">
         <v>0.2926971970312461</v>
       </c>
       <c r="D53" t="n">
-        <v>48210213862.45595</v>
+        <v>48210222350.67466</v>
       </c>
     </row>
     <row r="54">
@@ -1021,13 +1021,13 @@
         <v>35704</v>
       </c>
       <c r="B54" t="n">
-        <v>169848800000</v>
+        <v>169848847000</v>
       </c>
       <c r="C54" t="n">
         <v>0.2869440541447361</v>
       </c>
       <c r="D54" t="n">
-        <v>48737103263.61845</v>
+        <v>48737116749.989</v>
       </c>
     </row>
     <row r="55">
@@ -1035,13 +1035,13 @@
         <v>35735</v>
       </c>
       <c r="B55" t="n">
-        <v>173093800000</v>
+        <v>173093794000</v>
       </c>
       <c r="C55" t="n">
         <v>0.28316578555385</v>
       </c>
       <c r="D55" t="n">
-        <v>49014241851.50101</v>
+        <v>49014240152.50629</v>
       </c>
     </row>
     <row r="56">
@@ -1049,13 +1049,13 @@
         <v>35765</v>
       </c>
       <c r="B56" t="n">
-        <v>179378100000</v>
+        <v>179378106000</v>
       </c>
       <c r="C56" t="n">
         <v>0.2836879352145266</v>
       </c>
       <c r="D56" t="n">
-        <v>50887402811.70488</v>
+        <v>50887404513.83249</v>
       </c>
     </row>
     <row r="57">
@@ -1063,13 +1063,13 @@
         <v>35796</v>
       </c>
       <c r="B57" t="n">
-        <v>177942600000</v>
+        <v>177942578000</v>
       </c>
       <c r="C57" t="n">
         <v>0.2819681399856321</v>
       </c>
       <c r="D57" t="n">
-        <v>50174143946.20734</v>
+        <v>50174137742.90826</v>
       </c>
     </row>
     <row r="58">
@@ -1077,13 +1077,13 @@
         <v>35827</v>
       </c>
       <c r="B58" t="n">
-        <v>180545200000</v>
+        <v>180545239000</v>
       </c>
       <c r="C58" t="n">
         <v>0.287315042593392</v>
       </c>
       <c r="D58" t="n">
-        <v>51873351828.03248</v>
+        <v>51873363033.31915</v>
       </c>
     </row>
     <row r="59">
@@ -1091,13 +1091,13 @@
         <v>35855</v>
       </c>
       <c r="B59" t="n">
-        <v>182904300000</v>
+        <v>182904341000</v>
       </c>
       <c r="C59" t="n">
         <v>0.2897710825254771</v>
       </c>
       <c r="D59" t="n">
-        <v>53000377009.56462</v>
+        <v>53000388890.17901</v>
       </c>
     </row>
     <row r="60">
@@ -1105,13 +1105,13 @@
         <v>35886</v>
       </c>
       <c r="B60" t="n">
-        <v>185780900000</v>
+        <v>185780882000</v>
       </c>
       <c r="C60" t="n">
         <v>0.2944207176840045</v>
       </c>
       <c r="D60" t="n">
-        <v>54697745909.98026</v>
+        <v>54697740610.40735</v>
       </c>
     </row>
     <row r="61">
@@ -1119,13 +1119,13 @@
         <v>35916</v>
       </c>
       <c r="B61" t="n">
-        <v>190926800000</v>
+        <v>190926763000</v>
       </c>
       <c r="C61" t="n">
         <v>0.286450878598411</v>
       </c>
       <c r="D61" t="n">
-        <v>54691149607.98309</v>
+        <v>54691139009.30058</v>
       </c>
     </row>
     <row r="62">
@@ -1133,13 +1133,13 @@
         <v>35947</v>
       </c>
       <c r="B62" t="n">
-        <v>195272500000</v>
+        <v>195272472000</v>
       </c>
       <c r="C62" t="n">
         <v>0.2867794674126167</v>
       </c>
       <c r="D62" t="n">
-        <v>56000143550.3302</v>
+        <v>56000135520.50511</v>
       </c>
     </row>
     <row r="63">
@@ -1147,13 +1147,13 @@
         <v>35977</v>
       </c>
       <c r="B63" t="n">
-        <v>199468200000</v>
+        <v>199468249000</v>
       </c>
       <c r="C63" t="n">
         <v>0.2912479934287462</v>
       </c>
       <c r="D63" t="n">
-        <v>58094713002.84384</v>
+        <v>58094727273.99552</v>
       </c>
     </row>
     <row r="64">
@@ -1161,13 +1161,13 @@
         <v>36008</v>
       </c>
       <c r="B64" t="n">
-        <v>204921500000</v>
+        <v>204921487000</v>
       </c>
       <c r="C64" t="n">
         <v>0.2699055388913477</v>
       </c>
       <c r="D64" t="n">
-        <v>55309447887.9233</v>
+        <v>55309444379.15129</v>
       </c>
     </row>
     <row r="65">
@@ -1175,13 +1175,13 @@
         <v>36039</v>
       </c>
       <c r="B65" t="n">
-        <v>206446600000</v>
+        <v>206446635000</v>
       </c>
       <c r="C65" t="n">
         <v>0.2799160259759721</v>
       </c>
       <c r="D65" t="n">
-        <v>57787711848.25112</v>
+        <v>57787721645.31203</v>
       </c>
     </row>
     <row r="66">
@@ -1189,13 +1189,13 @@
         <v>36069</v>
       </c>
       <c r="B66" t="n">
-        <v>207413300000</v>
+        <v>207413340000</v>
       </c>
       <c r="C66" t="n">
         <v>0.2919281924840915</v>
       </c>
       <c r="D66" t="n">
-        <v>60549789766.16061</v>
+        <v>60549801443.28831</v>
       </c>
     </row>
     <row r="67">
@@ -1203,13 +1203,13 @@
         <v>36100</v>
       </c>
       <c r="B67" t="n">
-        <v>210561500000</v>
+        <v>210561453000</v>
       </c>
       <c r="C67" t="n">
         <v>0.2870264089009162</v>
       </c>
       <c r="D67" t="n">
-        <v>60436711197.79028</v>
+        <v>60436697707.54906</v>
       </c>
     </row>
     <row r="68">
@@ -1217,13 +1217,13 @@
         <v>36130</v>
       </c>
       <c r="B68" t="n">
-        <v>223678100000</v>
+        <v>223678101000</v>
       </c>
       <c r="C68" t="n">
         <v>0.2849002857119666</v>
       </c>
       <c r="D68" t="n">
-        <v>63725954597.50984</v>
+        <v>63725954882.41013</v>
       </c>
     </row>
     <row r="69">
@@ -1231,13 +1231,13 @@
         <v>36161</v>
       </c>
       <c r="B69" t="n">
-        <v>226255600000</v>
+        <v>226255598000</v>
       </c>
       <c r="C69" t="n">
         <v>0.2725538360670061</v>
       </c>
       <c r="D69" t="n">
-        <v>61666831711.6421</v>
+        <v>61666831166.53442</v>
       </c>
     </row>
     <row r="70">
@@ -1245,13 +1245,13 @@
         <v>36192</v>
       </c>
       <c r="B70" t="n">
-        <v>233296800000</v>
+        <v>233296783000</v>
       </c>
       <c r="C70" t="n">
         <v>0.2534854290859265</v>
       </c>
       <c r="D70" t="n">
-        <v>59137339452.37358</v>
+        <v>59137335143.12129</v>
       </c>
     </row>
     <row r="71">
@@ -1259,13 +1259,13 @@
         <v>36220</v>
       </c>
       <c r="B71" t="n">
-        <v>236660500000</v>
+        <v>236660450000</v>
       </c>
       <c r="C71" t="n">
         <v>0.2503128980061123</v>
       </c>
       <c r="D71" t="n">
-        <v>59239175598.57555</v>
+        <v>59239163082.93065</v>
       </c>
     </row>
     <row r="72">
@@ -1273,13 +1273,13 @@
         <v>36251</v>
       </c>
       <c r="B72" t="n">
-        <v>236676300000</v>
+        <v>236676311000</v>
       </c>
       <c r="C72" t="n">
         <v>0.2528445057465387</v>
       </c>
       <c r="D72" t="n">
-        <v>59842302095.41951</v>
+        <v>59842304876.70907</v>
       </c>
     </row>
     <row r="73">
@@ -1287,13 +1287,13 @@
         <v>36281</v>
       </c>
       <c r="B73" t="n">
-        <v>239913200000</v>
+        <v>239913167000</v>
       </c>
       <c r="C73" t="n">
         <v>0.2520161328429859</v>
       </c>
       <c r="D73" t="n">
-        <v>60461996881.98585</v>
+        <v>60461988565.45346</v>
       </c>
     </row>
     <row r="74">
@@ -1301,13 +1301,13 @@
         <v>36312</v>
       </c>
       <c r="B74" t="n">
-        <v>242377000000</v>
+        <v>242376978000</v>
       </c>
       <c r="C74" t="n">
         <v>0.2551020408163265</v>
       </c>
       <c r="D74" t="n">
-        <v>61830867346.93877</v>
+        <v>61830861734.69388</v>
       </c>
     </row>
     <row r="75">
@@ -1315,13 +1315,13 @@
         <v>36342</v>
       </c>
       <c r="B75" t="n">
-        <v>244091200000</v>
+        <v>244091159000</v>
       </c>
       <c r="C75" t="n">
         <v>0.2592285358772294</v>
       </c>
       <c r="D75" t="n">
-        <v>63275404396.51598</v>
+        <v>63275393768.146</v>
       </c>
     </row>
     <row r="76">
@@ -1329,13 +1329,13 @@
         <v>36373</v>
       </c>
       <c r="B76" t="n">
-        <v>247353300000</v>
+        <v>247353256000</v>
       </c>
       <c r="C76" t="n">
         <v>0.2525890376357666</v>
       </c>
       <c r="D76" t="n">
-        <v>62478732003.03107</v>
+        <v>62478720889.11342</v>
       </c>
     </row>
     <row r="77">
@@ -1343,13 +1343,13 @@
         <v>36404</v>
       </c>
       <c r="B77" t="n">
-        <v>252022400000</v>
+        <v>252022439000</v>
       </c>
       <c r="C77" t="n">
         <v>0.2447980416156671</v>
       </c>
       <c r="D77" t="n">
-        <v>61694589963.28029</v>
+        <v>61694599510.40392</v>
       </c>
     </row>
     <row r="78">
@@ -1357,13 +1357,13 @@
         <v>36434</v>
       </c>
       <c r="B78" t="n">
-        <v>256819700000</v>
+        <v>256819715000</v>
       </c>
       <c r="C78" t="n">
         <v>0.2378404090855036</v>
       </c>
       <c r="D78" t="n">
-        <v>61082102509.21631</v>
+        <v>61082106076.82245</v>
       </c>
     </row>
     <row r="79">
@@ -1371,13 +1371,13 @@
         <v>36465</v>
       </c>
       <c r="B79" t="n">
-        <v>261352700000</v>
+        <v>261352729000</v>
       </c>
       <c r="C79" t="n">
         <v>0.2366863905325444</v>
       </c>
       <c r="D79" t="n">
-        <v>61858627218.93491</v>
+        <v>61858634082.84024</v>
       </c>
     </row>
     <row r="80">
@@ -1385,13 +1385,13 @@
         <v>36495</v>
       </c>
       <c r="B80" t="n">
-        <v>268700500000</v>
+        <v>268700545000</v>
       </c>
       <c r="C80" t="n">
         <v>0.2421307506053269</v>
       </c>
       <c r="D80" t="n">
-        <v>65060653753.02663</v>
+        <v>65060664648.91042</v>
       </c>
     </row>
     <row r="81">
@@ -1399,13 +1399,13 @@
         <v>36526</v>
       </c>
       <c r="B81" t="n">
-        <v>260852600000</v>
+        <v>260852624000</v>
       </c>
       <c r="C81" t="n">
         <v>0.23767082590612</v>
       </c>
       <c r="D81" t="n">
-        <v>61997052881.75877</v>
+        <v>61997058585.85859</v>
       </c>
     </row>
     <row r="82">
@@ -1413,13 +1413,13 @@
         <v>36557</v>
       </c>
       <c r="B82" t="n">
-        <v>264431900000</v>
+        <v>264431926000</v>
       </c>
       <c r="C82" t="n">
         <v>0.2398139044101777</v>
       </c>
       <c r="D82" t="n">
-        <v>63414446389.60167</v>
+        <v>63414452624.76318</v>
       </c>
     </row>
     <row r="83">
@@ -1427,13 +1427,13 @@
         <v>36586</v>
       </c>
       <c r="B83" t="n">
-        <v>269598100000</v>
+        <v>269598133000</v>
       </c>
       <c r="C83" t="n">
         <v>0.2429366178364065</v>
       </c>
       <c r="D83" t="n">
-        <v>65495250589.1213</v>
+        <v>65495258606.02969</v>
       </c>
     </row>
     <row r="84">
@@ -1441,13 +1441,13 @@
         <v>36617</v>
       </c>
       <c r="B84" t="n">
-        <v>272969700000</v>
+        <v>272969659000</v>
       </c>
       <c r="C84" t="n">
         <v>0.2236936292054403</v>
       </c>
       <c r="D84" t="n">
-        <v>61061582856.12026</v>
+        <v>61061573684.68147</v>
       </c>
     </row>
     <row r="85">
@@ -1455,13 +1455,13 @@
         <v>36647</v>
       </c>
       <c r="B85" t="n">
-        <v>276690800000</v>
+        <v>276690830000</v>
       </c>
       <c r="C85" t="n">
         <v>0.228310502283105</v>
       </c>
       <c r="D85" t="n">
-        <v>63171415525.11416</v>
+        <v>63171422374.42923</v>
       </c>
     </row>
     <row r="86">
@@ -1469,13 +1469,13 @@
         <v>36678</v>
       </c>
       <c r="B86" t="n">
-        <v>291693400000</v>
+        <v>291693383000</v>
       </c>
       <c r="C86" t="n">
         <v>0.2304147465437788</v>
       </c>
       <c r="D86" t="n">
-        <v>67210460829.49309</v>
+        <v>67210456912.4424</v>
       </c>
     </row>
     <row r="87">
@@ -1483,13 +1483,13 @@
         <v>36708</v>
       </c>
       <c r="B87" t="n">
-        <v>284257700000</v>
+        <v>284257695000</v>
       </c>
       <c r="C87" t="n">
         <v>0.2307869836141241</v>
       </c>
       <c r="D87" t="n">
-        <v>65602977152.08862</v>
+        <v>65602975998.15369</v>
       </c>
     </row>
     <row r="88">
@@ -1497,13 +1497,13 @@
         <v>36739</v>
       </c>
       <c r="B88" t="n">
-        <v>284914900000</v>
+        <v>284914891000</v>
       </c>
       <c r="C88" t="n">
         <v>0.2285191956124314</v>
       </c>
       <c r="D88" t="n">
-        <v>65108523765.99634</v>
+        <v>65108521709.32358</v>
       </c>
     </row>
     <row r="89">
@@ -1511,13 +1511,13 @@
         <v>36770</v>
       </c>
       <c r="B89" t="n">
-        <v>288852100000</v>
+        <v>288852124000</v>
       </c>
       <c r="C89" t="n">
         <v>0.221606648199446</v>
       </c>
       <c r="D89" t="n">
-        <v>64011545706.37119</v>
+        <v>64011551024.93075</v>
       </c>
     </row>
     <row r="90">
@@ -1525,13 +1525,13 @@
         <v>36800</v>
       </c>
       <c r="B90" t="n">
-        <v>295448100000</v>
+        <v>295448056000</v>
       </c>
       <c r="C90" t="n">
         <v>0.2159127712404189</v>
       </c>
       <c r="D90" t="n">
-        <v>63791018028.7164</v>
+        <v>63791008528.55447</v>
       </c>
     </row>
     <row r="91">
@@ -1539,13 +1539,13 @@
         <v>36831</v>
       </c>
       <c r="B91" t="n">
-        <v>298750000000</v>
+        <v>298749981000</v>
       </c>
       <c r="C91" t="n">
         <v>0.2237386732296678</v>
       </c>
       <c r="D91" t="n">
-        <v>66841928627.36324</v>
+        <v>66841924376.32845</v>
       </c>
     </row>
     <row r="92">
@@ -1553,13 +1553,13 @@
         <v>36861</v>
       </c>
       <c r="B92" t="n">
-        <v>300424100000</v>
+        <v>300424137000</v>
       </c>
       <c r="C92" t="n">
         <v>0.2428658166363085</v>
       </c>
       <c r="D92" t="n">
-        <v>72962744383.728</v>
+        <v>72962753369.76321</v>
       </c>
     </row>
     <row r="93">
@@ -1567,13 +1567,13 @@
         <v>36892</v>
       </c>
       <c r="B93" t="n">
-        <v>298976500000</v>
+        <v>298976518000</v>
       </c>
       <c r="C93" t="n">
         <v>0.2455192732629511</v>
       </c>
       <c r="D93" t="n">
-        <v>73404493002.7007</v>
+        <v>73404497422.04762</v>
       </c>
     </row>
     <row r="94">
@@ -1581,13 +1581,13 @@
         <v>36923</v>
       </c>
       <c r="B94" t="n">
-        <v>303598900000</v>
+        <v>303598941000</v>
       </c>
       <c r="C94" t="n">
         <v>0.2482621648460775</v>
       </c>
       <c r="D94" t="n">
-        <v>75372120158.8878</v>
+        <v>75372130337.63655</v>
       </c>
     </row>
     <row r="95">
@@ -1609,13 +1609,13 @@
         <v>36982</v>
       </c>
       <c r="B96" t="n">
-        <v>310319000000</v>
+        <v>310319035000</v>
       </c>
       <c r="C96" t="n">
         <v>0.2534854245880862</v>
       </c>
       <c r="D96" t="n">
-        <v>78661343472.75032</v>
+        <v>78661352344.74019</v>
       </c>
     </row>
     <row r="97">
@@ -1623,13 +1623,13 @@
         <v>37012</v>
       </c>
       <c r="B97" t="n">
-        <v>312736600000</v>
+        <v>312736603000</v>
       </c>
       <c r="C97" t="n">
         <v>0.2520161290322581</v>
       </c>
       <c r="D97" t="n">
-        <v>78814667338.70967</v>
+        <v>78814668094.75806</v>
       </c>
     </row>
     <row r="98">
@@ -1637,13 +1637,13 @@
         <v>37043</v>
       </c>
       <c r="B98" t="n">
-        <v>314724900000</v>
+        <v>314724897000</v>
       </c>
       <c r="C98" t="n">
         <v>0.2496878901373283</v>
       </c>
       <c r="D98" t="n">
-        <v>78582996254.68164</v>
+        <v>78582995505.61798</v>
       </c>
     </row>
     <row r="99">
@@ -1651,13 +1651,13 @@
         <v>37073</v>
       </c>
       <c r="B99" t="n">
-        <v>320801300000</v>
+        <v>320801266000</v>
       </c>
       <c r="C99" t="n">
         <v>0.2350176263219741</v>
       </c>
       <c r="D99" t="n">
-        <v>75393960047.00352</v>
+        <v>75393952056.40424</v>
       </c>
     </row>
     <row r="100">
@@ -1665,13 +1665,13 @@
         <v>37104</v>
       </c>
       <c r="B100" t="n">
-        <v>324636100000</v>
+        <v>324636133000</v>
       </c>
       <c r="C100" t="n">
         <v>0.2365464222353637</v>
       </c>
       <c r="D100" t="n">
-        <v>76791507983.44174</v>
+        <v>76791515789.47368</v>
       </c>
     </row>
     <row r="101">
@@ -1679,13 +1679,13 @@
         <v>37135</v>
       </c>
       <c r="B101" t="n">
-        <v>326867500000</v>
+        <v>326867489000</v>
       </c>
       <c r="C101" t="n">
         <v>0.2368265245707519</v>
       </c>
       <c r="D101" t="n">
-        <v>77410894020.13025</v>
+        <v>77410891415.03848</v>
       </c>
     </row>
     <row r="102">
@@ -1693,13 +1693,13 @@
         <v>37165</v>
       </c>
       <c r="B102" t="n">
-        <v>330919500000</v>
+        <v>330919544000</v>
       </c>
       <c r="C102" t="n">
         <v>0.244552591034702</v>
       </c>
       <c r="D102" t="n">
-        <v>80927221148.90807</v>
+        <v>80927231909.22208</v>
       </c>
     </row>
     <row r="103">
@@ -1707,13 +1707,13 @@
         <v>37196</v>
       </c>
       <c r="B103" t="n">
-        <v>322359700000</v>
+        <v>322359738000</v>
       </c>
       <c r="C103" t="n">
         <v>0.2461296118536021</v>
       </c>
       <c r="D103" t="n">
-        <v>79342267838.24362</v>
+        <v>79342277191.16887</v>
       </c>
     </row>
     <row r="104">
@@ -1721,13 +1721,13 @@
         <v>37226</v>
       </c>
       <c r="B104" t="n">
-        <v>329469100000</v>
+        <v>329469146000</v>
       </c>
       <c r="C104" t="n">
         <v>0.2526847757422615</v>
       </c>
       <c r="D104" t="n">
-        <v>83251825647.50473</v>
+        <v>83251837271.00441</v>
       </c>
     </row>
     <row r="105">
@@ -1735,13 +1735,13 @@
         <v>37257</v>
       </c>
       <c r="B105" t="n">
-        <v>323454200000</v>
+        <v>323454189000</v>
       </c>
       <c r="C105" t="n">
         <v>0.2400729821865847</v>
       </c>
       <c r="D105" t="n">
-        <v>77652614394.776</v>
+        <v>77652611753.97321</v>
       </c>
     </row>
     <row r="106">
@@ -1749,13 +1749,13 @@
         <v>37288</v>
       </c>
       <c r="B106" t="n">
-        <v>326183500000</v>
+        <v>326183539000</v>
       </c>
       <c r="C106" t="n">
         <v>0.237129781129212</v>
       </c>
       <c r="D106" t="n">
-        <v>77347821962.96033</v>
+        <v>77347831211.02179</v>
       </c>
     </row>
     <row r="107">
@@ -1763,13 +1763,13 @@
         <v>37316</v>
       </c>
       <c r="B107" t="n">
-        <v>320959400000</v>
+        <v>320959393000</v>
       </c>
       <c r="C107" t="n">
         <v>0.2431315341599805</v>
       </c>
       <c r="D107" t="n">
-        <v>78035351325.06685</v>
+        <v>78035349623.1461</v>
       </c>
     </row>
     <row r="108">
@@ -1777,13 +1777,13 @@
         <v>37347</v>
       </c>
       <c r="B108" t="n">
-        <v>319709600000</v>
+        <v>319709617000</v>
       </c>
       <c r="C108" t="n">
         <v>0.2505826045555918</v>
       </c>
       <c r="D108" t="n">
-        <v>80113664269.42642</v>
+        <v>80113668529.3307</v>
       </c>
     </row>
     <row r="109">
@@ -1791,13 +1791,13 @@
         <v>37377</v>
       </c>
       <c r="B109" t="n">
-        <v>324489500000</v>
+        <v>324489529000</v>
       </c>
       <c r="C109" t="n">
         <v>0.2487438435898711</v>
       </c>
       <c r="D109" t="n">
-        <v>80714765434.5555</v>
+        <v>80714772648.12695</v>
       </c>
     </row>
     <row r="110">
@@ -1805,13 +1805,13 @@
         <v>37408</v>
       </c>
       <c r="B110" t="n">
-        <v>324586700000</v>
+        <v>324586696000</v>
       </c>
       <c r="C110" t="n">
         <v>0.2471271469170888</v>
       </c>
       <c r="D110" t="n">
-        <v>80214185098.23305</v>
+        <v>80214184109.72446</v>
       </c>
     </row>
     <row r="111">
@@ -1819,13 +1819,13 @@
         <v>37438</v>
       </c>
       <c r="B111" t="n">
-        <v>327167100000</v>
+        <v>327167081000</v>
       </c>
       <c r="C111" t="n">
         <v>0.239693192713327</v>
       </c>
       <c r="D111" t="n">
-        <v>78419726749.76031</v>
+        <v>78419722195.58965</v>
       </c>
     </row>
     <row r="112">
@@ -1833,13 +1833,13 @@
         <v>37469</v>
       </c>
       <c r="B112" t="n">
-        <v>326017500000</v>
+        <v>326017515000</v>
       </c>
       <c r="C112" t="n">
         <v>0.2399520095980804</v>
       </c>
       <c r="D112" t="n">
-        <v>78228554289.14217</v>
+        <v>78228557888.4223</v>
       </c>
     </row>
     <row r="113">
@@ -1847,13 +1847,13 @@
         <v>37500</v>
       </c>
       <c r="B113" t="n">
-        <v>324017300000</v>
+        <v>324017337000</v>
       </c>
       <c r="C113" t="n">
         <v>0.2411091018685955</v>
       </c>
       <c r="D113" t="n">
-        <v>78123520192.88728</v>
+        <v>78123529113.92406</v>
       </c>
     </row>
     <row r="114">
@@ -1861,13 +1861,13 @@
         <v>37530</v>
       </c>
       <c r="B114" t="n">
-        <v>324620500000</v>
+        <v>324620533000</v>
       </c>
       <c r="C114" t="n">
         <v>0.2482621648460775</v>
       </c>
       <c r="D114" t="n">
-        <v>80590988083.41609</v>
+        <v>80590996276.06754</v>
       </c>
     </row>
     <row r="115">
@@ -1875,13 +1875,13 @@
         <v>37561</v>
       </c>
       <c r="B115" t="n">
-        <v>321562600000</v>
+        <v>321562565000</v>
       </c>
       <c r="C115" t="n">
         <v>0.2492522432701895</v>
       </c>
       <c r="D115" t="n">
-        <v>80150199401.79463</v>
+        <v>80150190677.96611</v>
       </c>
     </row>
     <row r="116">
@@ -1889,13 +1889,13 @@
         <v>37591</v>
       </c>
       <c r="B116" t="n">
-        <v>324346400000</v>
+        <v>324346430000</v>
       </c>
       <c r="C116" t="n">
         <v>0.2626050420168067</v>
       </c>
       <c r="D116" t="n">
-        <v>85175000000</v>
+        <v>85175007878.15126</v>
       </c>
     </row>
     <row r="117">
@@ -1903,13 +1903,13 @@
         <v>37622</v>
       </c>
       <c r="B117" t="n">
-        <v>319758500000</v>
+        <v>319758534000</v>
       </c>
       <c r="C117" t="n">
         <v>0.2617801047120419</v>
       </c>
       <c r="D117" t="n">
-        <v>83706413612.56544</v>
+        <v>83706422513.089</v>
       </c>
     </row>
     <row r="118">
@@ -1917,13 +1917,13 @@
         <v>37653</v>
       </c>
       <c r="B118" t="n">
-        <v>323057000000</v>
+        <v>323056954000</v>
       </c>
       <c r="C118" t="n">
         <v>0.2547770700636943</v>
       </c>
       <c r="D118" t="n">
-        <v>82307515923.56688</v>
+        <v>82307504203.82166</v>
       </c>
     </row>
     <row r="119">
@@ -1931,13 +1931,13 @@
         <v>37681</v>
       </c>
       <c r="B119" t="n">
-        <v>322637900000</v>
+        <v>322637850000</v>
       </c>
       <c r="C119" t="n">
         <v>0.2442002442002442</v>
       </c>
       <c r="D119" t="n">
-        <v>78788253968.25397</v>
+        <v>78788241758.24176</v>
       </c>
     </row>
     <row r="120">
@@ -1945,13 +1945,13 @@
         <v>37712</v>
       </c>
       <c r="B120" t="n">
-        <v>321985000000</v>
+        <v>321984990000</v>
       </c>
       <c r="C120" t="n">
         <v>0.2635046113306983</v>
       </c>
       <c r="D120" t="n">
-        <v>84844532279.3149</v>
+        <v>84844529644.26878</v>
       </c>
     </row>
     <row r="121">
@@ -1959,13 +1959,13 @@
         <v>37742</v>
       </c>
       <c r="B121" t="n">
-        <v>325064700000</v>
+        <v>325064664000</v>
       </c>
       <c r="C121" t="n">
         <v>0.2686366689053056</v>
       </c>
       <c r="D121" t="n">
-        <v>87324298186.70248</v>
+        <v>87324288515.78241</v>
       </c>
     </row>
     <row r="122">
@@ -1973,13 +1973,13 @@
         <v>37773</v>
       </c>
       <c r="B122" t="n">
-        <v>327733100000</v>
+        <v>327733066000</v>
       </c>
       <c r="C122" t="n">
         <v>0.2578648788035069</v>
       </c>
       <c r="D122" t="n">
-        <v>84510856111.39763</v>
+        <v>84510847343.99174</v>
       </c>
     </row>
     <row r="123">
@@ -1987,13 +1987,13 @@
         <v>37803</v>
       </c>
       <c r="B123" t="n">
-        <v>327958000000</v>
+        <v>327958022000</v>
       </c>
       <c r="C123" t="n">
         <v>0.2588125679382991</v>
       </c>
       <c r="D123" t="n">
-        <v>84879652155.90869</v>
+        <v>84879657849.78519</v>
       </c>
     </row>
     <row r="124">
@@ -2001,13 +2001,13 @@
         <v>37834</v>
       </c>
       <c r="B124" t="n">
-        <v>329714100000</v>
+        <v>329714070000</v>
       </c>
       <c r="C124" t="n">
         <v>0.2524933720489837</v>
       </c>
       <c r="D124" t="n">
-        <v>83250624921.09581</v>
+        <v>83250617346.29466</v>
       </c>
     </row>
     <row r="125">
@@ -2015,13 +2015,13 @@
         <v>37865</v>
       </c>
       <c r="B125" t="n">
-        <v>331850400000</v>
+        <v>331850367000</v>
       </c>
       <c r="C125" t="n">
         <v>0.2533826584908529</v>
       </c>
       <c r="D125" t="n">
-        <v>84085136573.25293</v>
+        <v>84085128211.6252</v>
       </c>
     </row>
     <row r="126">
@@ -2029,13 +2029,13 @@
         <v>37895</v>
       </c>
       <c r="B126" t="n">
-        <v>337353300000</v>
+        <v>337353334000</v>
       </c>
       <c r="C126" t="n">
         <v>0.2484472049689441</v>
       </c>
       <c r="D126" t="n">
-        <v>83814484472.04968</v>
+        <v>83814492919.25465</v>
       </c>
     </row>
     <row r="127">
@@ -2043,13 +2043,13 @@
         <v>37926</v>
       </c>
       <c r="B127" t="n">
-        <v>339297800000</v>
+        <v>339297820000</v>
       </c>
       <c r="C127" t="n">
         <v>0.2561803509670808</v>
       </c>
       <c r="D127" t="n">
-        <v>86921429486.35838</v>
+        <v>86921434609.96541</v>
       </c>
     </row>
     <row r="128">
@@ -2057,13 +2057,13 @@
         <v>37956</v>
       </c>
       <c r="B128" t="n">
-        <v>342860200000</v>
+        <v>342860220000</v>
       </c>
       <c r="C128" t="n">
         <v>0.2679600203649615</v>
       </c>
       <c r="D128" t="n">
-        <v>91872826174.33478</v>
+        <v>91872831533.53519</v>
       </c>
     </row>
     <row r="129">
@@ -2071,13 +2071,13 @@
         <v>37987</v>
       </c>
       <c r="B129" t="n">
-        <v>336936000000</v>
+        <v>336935975000</v>
       </c>
       <c r="C129" t="n">
         <v>0.2597605008182456</v>
       </c>
       <c r="D129" t="n">
-        <v>87522664103.6964</v>
+        <v>87522657609.68387</v>
       </c>
     </row>
     <row r="130">
@@ -2085,13 +2085,13 @@
         <v>38018</v>
       </c>
       <c r="B130" t="n">
-        <v>340271200000</v>
+        <v>340271244000</v>
       </c>
       <c r="C130" t="n">
         <v>0.2557544757033248</v>
       </c>
       <c r="D130" t="n">
-        <v>87025882352.94118</v>
+        <v>87025893606.13811</v>
       </c>
     </row>
     <row r="131">
@@ -2099,13 +2099,13 @@
         <v>38047</v>
       </c>
       <c r="B131" t="n">
-        <v>342096500000</v>
+        <v>342096455000</v>
       </c>
       <c r="C131" t="n">
         <v>0.2590673575129534</v>
       </c>
       <c r="D131" t="n">
-        <v>88626036269.43007</v>
+        <v>88626024611.39897</v>
       </c>
     </row>
     <row r="132">
@@ -2113,13 +2113,13 @@
         <v>38078</v>
       </c>
       <c r="B132" t="n">
-        <v>350781300000</v>
+        <v>350781270000</v>
       </c>
       <c r="C132" t="n">
         <v>0.2504696305572949</v>
       </c>
       <c r="D132" t="n">
-        <v>87860062617.40764</v>
+        <v>87860055103.31873</v>
       </c>
     </row>
     <row r="133">
@@ -2127,13 +2127,13 @@
         <v>38108</v>
       </c>
       <c r="B133" t="n">
-        <v>346624700000</v>
+        <v>346624725000</v>
       </c>
       <c r="C133" t="n">
         <v>0.2621231979030144</v>
       </c>
       <c r="D133" t="n">
-        <v>90858374836.173</v>
+        <v>90858381389.25294</v>
       </c>
     </row>
     <row r="134">
@@ -2141,13 +2141,13 @@
         <v>38139</v>
       </c>
       <c r="B134" t="n">
-        <v>350294500000</v>
+        <v>350294502000</v>
       </c>
       <c r="C134" t="n">
         <v>0.2711202689513068</v>
       </c>
       <c r="D134" t="n">
-        <v>94971939052.16354</v>
+        <v>94971939594.40408</v>
       </c>
     </row>
     <row r="135">
@@ -2155,13 +2155,13 @@
         <v>38169</v>
       </c>
       <c r="B135" t="n">
-        <v>349192600000</v>
+        <v>349192627000</v>
       </c>
       <c r="C135" t="n">
         <v>0.274649821477616</v>
       </c>
       <c r="D135" t="n">
-        <v>95905685251.30458</v>
+        <v>95905692666.84976</v>
       </c>
     </row>
     <row r="136">
@@ -2169,13 +2169,13 @@
         <v>38200</v>
       </c>
       <c r="B136" t="n">
-        <v>353147200000</v>
+        <v>353147170000</v>
       </c>
       <c r="C136" t="n">
         <v>0.2739650968466617</v>
       </c>
       <c r="D136" t="n">
-        <v>96750006849.12741</v>
+        <v>96749998630.1745</v>
       </c>
     </row>
     <row r="137">
@@ -2183,13 +2183,13 @@
         <v>38231</v>
       </c>
       <c r="B137" t="n">
-        <v>352678300000</v>
+        <v>352678316000</v>
       </c>
       <c r="C137" t="n">
         <v>0.2852741484566669</v>
       </c>
       <c r="D137" t="n">
-        <v>100610001711.6449</v>
+        <v>100610006276.0313</v>
       </c>
     </row>
     <row r="138">
@@ -2197,13 +2197,13 @@
         <v>38261</v>
       </c>
       <c r="B138" t="n">
-        <v>372303200000</v>
+        <v>372303238000</v>
       </c>
       <c r="C138" t="n">
         <v>0.295185524101898</v>
       </c>
       <c r="D138" t="n">
-        <v>109898515216.8138</v>
+        <v>109898526433.8637</v>
       </c>
     </row>
     <row r="139">
@@ -2211,13 +2211,13 @@
         <v>38292</v>
       </c>
       <c r="B139" t="n">
-        <v>359231300000</v>
+        <v>359231343000</v>
       </c>
       <c r="C139" t="n">
         <v>0.3175107159866645</v>
       </c>
       <c r="D139" t="n">
-        <v>114059787267.8203</v>
+        <v>114059800920.7811</v>
       </c>
     </row>
     <row r="140">
@@ -2225,13 +2225,13 @@
         <v>38322</v>
       </c>
       <c r="B140" t="n">
-        <v>368714100000</v>
+        <v>368714137000</v>
       </c>
       <c r="C140" t="n">
         <v>0.3323805092069401</v>
       </c>
       <c r="D140" t="n">
-        <v>122553380309.7786</v>
+        <v>122553392607.8575</v>
       </c>
     </row>
     <row r="141">
@@ -2239,13 +2239,13 @@
         <v>38353</v>
       </c>
       <c r="B141" t="n">
-        <v>366417000000</v>
+        <v>366416955000</v>
       </c>
       <c r="C141" t="n">
         <v>0.321078824851501</v>
       </c>
       <c r="D141" t="n">
-        <v>117648739765.6125</v>
+        <v>117648725317.0653</v>
       </c>
     </row>
     <row r="142">
@@ -2253,13 +2253,13 @@
         <v>38384</v>
       </c>
       <c r="B142" t="n">
-        <v>371693600000</v>
+        <v>371693577000</v>
       </c>
       <c r="C142" t="n">
         <v>0.3404255319148936</v>
       </c>
       <c r="D142" t="n">
-        <v>126533991489.3617</v>
+        <v>126533983659.5745</v>
       </c>
     </row>
     <row r="143">
@@ -2267,13 +2267,13 @@
         <v>38412</v>
       </c>
       <c r="B143" t="n">
-        <v>380308300000</v>
+        <v>380308273000</v>
       </c>
       <c r="C143" t="n">
         <v>0.3165358318561661</v>
       </c>
       <c r="D143" t="n">
-        <v>120381204102.3044</v>
+        <v>120381195555.8369</v>
       </c>
     </row>
     <row r="144">
@@ -2281,13 +2281,13 @@
         <v>38443</v>
       </c>
       <c r="B144" t="n">
-        <v>385623900000</v>
+        <v>385623925000</v>
       </c>
       <c r="C144" t="n">
         <v>0.3004627125773692</v>
       </c>
       <c r="D144" t="n">
-        <v>115865603028.6642</v>
+        <v>115865610540.232</v>
       </c>
     </row>
     <row r="145">
@@ -2295,13 +2295,13 @@
         <v>38473</v>
       </c>
       <c r="B145" t="n">
-        <v>392123000000</v>
+        <v>392122961000</v>
       </c>
       <c r="C145" t="n">
         <v>0.2950287653046172</v>
       </c>
       <c r="D145" t="n">
-        <v>115687564537.5424</v>
+        <v>115687553031.4206</v>
       </c>
     </row>
     <row r="146">
@@ -2309,13 +2309,13 @@
         <v>38504</v>
       </c>
       <c r="B146" t="n">
-        <v>390159900000</v>
+        <v>390159927000</v>
       </c>
       <c r="C146" t="n">
         <v>0.2994818963193675</v>
       </c>
       <c r="D146" t="n">
-        <v>116845826719.7748</v>
+        <v>116845834805.786</v>
       </c>
     </row>
     <row r="147">
@@ -2323,13 +2323,13 @@
         <v>38534</v>
       </c>
       <c r="B147" t="n">
-        <v>391150400000</v>
+        <v>391150422000</v>
       </c>
       <c r="C147" t="n">
         <v>0.298569850416505</v>
       </c>
       <c r="D147" t="n">
-        <v>116785716418.3561</v>
+        <v>116785722986.8928</v>
       </c>
     </row>
     <row r="148">
@@ -2337,13 +2337,13 @@
         <v>38565</v>
       </c>
       <c r="B148" t="n">
-        <v>397421800000</v>
+        <v>397421797000</v>
       </c>
       <c r="C148" t="n">
         <v>0.3074936195073952</v>
       </c>
       <c r="D148" t="n">
-        <v>122204667753.1441</v>
+        <v>122204666830.6633</v>
       </c>
     </row>
     <row r="149">
@@ -2351,13 +2351,13 @@
         <v>38596</v>
       </c>
       <c r="B149" t="n">
-        <v>401581200000</v>
+        <v>401581220000</v>
       </c>
       <c r="C149" t="n">
         <v>0.3065791894046232</v>
       </c>
       <c r="D149" t="n">
-        <v>123116438776.1359</v>
+        <v>123116444907.7197</v>
       </c>
     </row>
     <row r="150">
@@ -2365,13 +2365,13 @@
         <v>38626</v>
       </c>
       <c r="B150" t="n">
-        <v>407006500000</v>
+        <v>407006481000</v>
       </c>
       <c r="C150" t="n">
         <v>0.3028375882014476</v>
       </c>
       <c r="D150" t="n">
-        <v>123256866842.3125</v>
+        <v>123256861088.3983</v>
       </c>
     </row>
     <row r="151">
@@ -2379,13 +2379,13 @@
         <v>38657</v>
       </c>
       <c r="B151" t="n">
-        <v>408782100000</v>
+        <v>408782113000</v>
       </c>
       <c r="C151" t="n">
         <v>0.3014681498899641</v>
       </c>
       <c r="D151" t="n">
-        <v>123234783395.1343</v>
+        <v>123234787314.2202</v>
       </c>
     </row>
     <row r="152">
@@ -2393,13 +2393,13 @@
         <v>38687</v>
       </c>
       <c r="B152" t="n">
-        <v>415163500000</v>
+        <v>415163519000</v>
       </c>
       <c r="C152" t="n">
         <v>0.3085943527233452</v>
       </c>
       <c r="D152" t="n">
-        <v>128117111556.8585</v>
+        <v>128117117420.1512</v>
       </c>
     </row>
     <row r="153">
@@ -2407,13 +2407,13 @@
         <v>38718</v>
       </c>
       <c r="B153" t="n">
-        <v>410120200000</v>
+        <v>410120206000</v>
       </c>
       <c r="C153" t="n">
         <v>0.3183395409543819</v>
       </c>
       <c r="D153" t="n">
-        <v>130557476204.1193</v>
+        <v>130557478114.1566</v>
       </c>
     </row>
     <row r="154">
@@ -2421,13 +2421,13 @@
         <v>38749</v>
       </c>
       <c r="B154" t="n">
-        <v>417062000000</v>
+        <v>417061959000</v>
       </c>
       <c r="C154" t="n">
         <v>0.315746266300401</v>
       </c>
       <c r="D154" t="n">
-        <v>131685769315.7778</v>
+        <v>131685756370.1809</v>
       </c>
     </row>
     <row r="155">
@@ -2435,13 +2435,13 @@
         <v>38777</v>
       </c>
       <c r="B155" t="n">
-        <v>421150500000</v>
+        <v>421150531000</v>
       </c>
       <c r="C155" t="n">
         <v>0.3093006711824565</v>
       </c>
       <c r="D155" t="n">
-        <v>130262132318.8271</v>
+        <v>130262141907.1479</v>
       </c>
     </row>
     <row r="156">
@@ -2449,13 +2449,13 @@
         <v>38808</v>
       </c>
       <c r="B156" t="n">
-        <v>425273800000</v>
+        <v>425273793000</v>
       </c>
       <c r="C156" t="n">
         <v>0.3267867063167871</v>
       </c>
       <c r="D156" t="n">
-        <v>138973824384.824</v>
+        <v>138973822097.3171</v>
       </c>
     </row>
     <row r="157">
@@ -2463,13 +2463,13 @@
         <v>38838</v>
       </c>
       <c r="B157" t="n">
-        <v>433601500000</v>
+        <v>433601452000</v>
       </c>
       <c r="C157" t="n">
         <v>0.3256162287128391</v>
       </c>
       <c r="D157" t="n">
-        <v>141187685194.2301</v>
+        <v>141187669564.6511</v>
       </c>
     </row>
     <row r="158">
@@ -2477,13 +2477,13 @@
         <v>38869</v>
       </c>
       <c r="B158" t="n">
-        <v>440505200000</v>
+        <v>440505178000</v>
       </c>
       <c r="C158" t="n">
         <v>0.3147425406017877</v>
       </c>
       <c r="D158" t="n">
-        <v>138645725796.2986</v>
+        <v>138645718871.9627</v>
       </c>
     </row>
     <row r="159">
@@ -2491,13 +2491,13 @@
         <v>38899</v>
       </c>
       <c r="B159" t="n">
-        <v>442798100000</v>
+        <v>442798058000</v>
       </c>
       <c r="C159" t="n">
         <v>0.3243278305711413</v>
       </c>
       <c r="D159" t="n">
-        <v>143611747154.0233</v>
+        <v>143611733532.2544</v>
       </c>
     </row>
     <row r="160">
@@ -2505,13 +2505,13 @@
         <v>38930</v>
       </c>
       <c r="B160" t="n">
-        <v>449012000000</v>
+        <v>449012041000</v>
       </c>
       <c r="C160" t="n">
         <v>0.3250024375182813</v>
       </c>
       <c r="D160" t="n">
-        <v>145929994474.9585</v>
+        <v>145930007800.0585</v>
       </c>
     </row>
     <row r="161">
@@ -2519,13 +2519,13 @@
         <v>38961</v>
       </c>
       <c r="B161" t="n">
-        <v>454205800000</v>
+        <v>454205828000</v>
       </c>
       <c r="C161" t="n">
         <v>0.3194990255279721</v>
       </c>
       <c r="D161" t="n">
-        <v>145118310489.153</v>
+        <v>145118319435.1257</v>
       </c>
     </row>
     <row r="162">
@@ -2533,13 +2533,13 @@
         <v>38991</v>
       </c>
       <c r="B162" t="n">
-        <v>459026700000</v>
+        <v>459026730000</v>
       </c>
       <c r="C162" t="n">
         <v>0.3305785123966942</v>
       </c>
       <c r="D162" t="n">
-        <v>151744363636.3636</v>
+        <v>151744373553.719</v>
       </c>
     </row>
     <row r="163">
@@ -2547,13 +2547,13 @@
         <v>39022</v>
       </c>
       <c r="B163" t="n">
-        <v>466057000000</v>
+        <v>466057044000</v>
       </c>
       <c r="C163" t="n">
         <v>0.3474514436607484</v>
       </c>
       <c r="D163" t="n">
-        <v>161932177478.1974</v>
+        <v>161932192766.0609</v>
       </c>
     </row>
     <row r="164">
@@ -2561,13 +2561,13 @@
         <v>39052</v>
       </c>
       <c r="B164" t="n">
-        <v>481210500000</v>
+        <v>481210466000</v>
       </c>
       <c r="C164" t="n">
         <v>0.3450774698919908</v>
       </c>
       <c r="D164" t="n">
-        <v>166054901825.4598</v>
+        <v>166054890092.8259</v>
       </c>
     </row>
     <row r="165">
@@ -2575,13 +2575,13 @@
         <v>39083</v>
       </c>
       <c r="B165" t="n">
-        <v>488060800000</v>
+        <v>488060833000</v>
       </c>
       <c r="C165" t="n">
         <v>0.3342581141157202</v>
       </c>
       <c r="D165" t="n">
-        <v>163138282581.8097</v>
+        <v>163138293612.3275</v>
       </c>
     </row>
     <row r="166">
@@ -2589,13 +2589,13 @@
         <v>39114</v>
       </c>
       <c r="B166" t="n">
-        <v>495376500000</v>
+        <v>495376461000</v>
       </c>
       <c r="C166" t="n">
         <v>0.3391670058336725</v>
       </c>
       <c r="D166" t="n">
-        <v>168015364265.3643</v>
+        <v>168015351037.851</v>
       </c>
     </row>
     <row r="167">
@@ -2603,13 +2603,13 @@
         <v>39142</v>
       </c>
       <c r="B167" t="n">
-        <v>497294700000</v>
+        <v>497294745000</v>
       </c>
       <c r="C167" t="n">
         <v>0.3456499948152501</v>
       </c>
       <c r="D167" t="n">
-        <v>171889910476.6513</v>
+        <v>171889926030.9011</v>
       </c>
     </row>
     <row r="168">
@@ -2617,13 +2617,13 @@
         <v>39173</v>
       </c>
       <c r="B168" t="n">
-        <v>502083300000</v>
+        <v>502083302000</v>
       </c>
       <c r="C168" t="n">
         <v>0.360386334150209</v>
       </c>
       <c r="D168" t="n">
-        <v>180943959925.0396</v>
+        <v>180943960645.8123</v>
       </c>
     </row>
     <row r="169">
@@ -2631,13 +2631,13 @@
         <v>39203</v>
       </c>
       <c r="B169" t="n">
-        <v>504800500000</v>
+        <v>504800537000</v>
       </c>
       <c r="C169" t="n">
         <v>0.3531073446327684</v>
       </c>
       <c r="D169" t="n">
-        <v>178248764124.2938</v>
+        <v>178248777189.2655</v>
       </c>
     </row>
     <row r="170">
@@ -2645,13 +2645,13 @@
         <v>39234</v>
       </c>
       <c r="B170" t="n">
-        <v>506807000000</v>
+        <v>506806993000</v>
       </c>
       <c r="C170" t="n">
         <v>0.3603214066947718</v>
       </c>
       <c r="D170" t="n">
-        <v>182613411162.7572</v>
+        <v>182613408640.5074</v>
       </c>
     </row>
     <row r="171">
@@ -2659,13 +2659,13 @@
         <v>39264</v>
       </c>
       <c r="B171" t="n">
-        <v>511540900000</v>
+        <v>511540906000</v>
       </c>
       <c r="C171" t="n">
         <v>0.3611020835590221</v>
       </c>
       <c r="D171" t="n">
-        <v>184718484815.6574</v>
+        <v>184718486982.2699</v>
       </c>
     </row>
     <row r="172">
@@ -2673,13 +2673,13 @@
         <v>39295</v>
       </c>
       <c r="B172" t="n">
-        <v>521751600000</v>
+        <v>521751550000</v>
       </c>
       <c r="C172" t="n">
         <v>0.3573853686430078</v>
       </c>
       <c r="D172" t="n">
-        <v>186466387906.0791</v>
+        <v>186466370036.8107</v>
       </c>
     </row>
     <row r="173">
@@ -2687,13 +2687,13 @@
         <v>39326</v>
       </c>
       <c r="B173" t="n">
-        <v>523463000000</v>
+        <v>523462956000</v>
       </c>
       <c r="C173" t="n">
         <v>0.3791037986200622</v>
       </c>
       <c r="D173" t="n">
-        <v>198446811737.0536</v>
+        <v>198446795056.4865</v>
       </c>
     </row>
     <row r="174">
@@ -2701,13 +2701,13 @@
         <v>39356</v>
       </c>
       <c r="B174" t="n">
-        <v>527874000000</v>
+        <v>527874019000</v>
       </c>
       <c r="C174" t="n">
         <v>0.3999680025597952</v>
       </c>
       <c r="D174" t="n">
-        <v>211132709383.2493</v>
+        <v>211132716982.6414</v>
       </c>
     </row>
     <row r="175">
@@ -2715,13 +2715,13 @@
         <v>39387</v>
       </c>
       <c r="B175" t="n">
-        <v>536088900000</v>
+        <v>536088887000</v>
       </c>
       <c r="C175" t="n">
         <v>0.405926527298559</v>
       </c>
       <c r="D175" t="n">
-        <v>217612705500.3045</v>
+        <v>217612700223.2596</v>
       </c>
     </row>
     <row r="176">
@@ -2729,13 +2729,13 @@
         <v>39417</v>
       </c>
       <c r="B176" t="n">
-        <v>549344300000.0001</v>
+        <v>549344290999.9999</v>
       </c>
       <c r="C176" t="n">
         <v>0.4056795131845842</v>
       </c>
       <c r="D176" t="n">
-        <v>222857728194.7263</v>
+        <v>222857724543.6105</v>
       </c>
     </row>
     <row r="177">
@@ -2743,13 +2743,13 @@
         <v>39448</v>
       </c>
       <c r="B177" t="n">
-        <v>556007700000</v>
+        <v>556007732000</v>
       </c>
       <c r="C177" t="n">
         <v>0.4137702747434625</v>
       </c>
       <c r="D177" t="n">
-        <v>230059458788.4807</v>
+        <v>230059472029.1294</v>
       </c>
     </row>
     <row r="178">
@@ -2757,13 +2757,13 @@
         <v>39479</v>
       </c>
       <c r="B178" t="n">
-        <v>565582000000</v>
+        <v>565581997000</v>
       </c>
       <c r="C178" t="n">
         <v>0.4315180806075775</v>
       </c>
       <c r="D178" t="n">
-        <v>244058859066.1949</v>
+        <v>244058857771.6406</v>
       </c>
     </row>
     <row r="179">
@@ -2771,13 +2771,13 @@
         <v>39508</v>
       </c>
       <c r="B179" t="n">
-        <v>570176500000</v>
+        <v>570176454000</v>
       </c>
       <c r="C179" t="n">
         <v>0.4491152429713465</v>
       </c>
       <c r="D179" t="n">
-        <v>256074957334.0519</v>
+        <v>256074936674.7508</v>
       </c>
     </row>
     <row r="180">
@@ -2785,13 +2785,13 @@
         <v>39539</v>
       </c>
       <c r="B180" t="n">
-        <v>581982700000</v>
+        <v>581982673000</v>
       </c>
       <c r="C180" t="n">
         <v>0.4536587578823209</v>
       </c>
       <c r="D180" t="n">
-        <v>264021548790.9994</v>
+        <v>264021536542.213</v>
       </c>
     </row>
     <row r="181">
@@ -2799,13 +2799,13 @@
         <v>39569</v>
       </c>
       <c r="B181" t="n">
-        <v>589308500000</v>
+        <v>589308477000</v>
       </c>
       <c r="C181" t="n">
         <v>0.4617657923900997</v>
       </c>
       <c r="D181" t="n">
-        <v>272122506464.7211</v>
+        <v>272122495844.1079</v>
       </c>
     </row>
     <row r="182">
@@ -2813,13 +2813,13 @@
         <v>39600</v>
       </c>
       <c r="B182" t="n">
-        <v>595558200000</v>
+        <v>595558242000</v>
       </c>
       <c r="C182" t="n">
         <v>0.4708097928436911</v>
       </c>
       <c r="D182" t="n">
-        <v>280394632768.3616</v>
+        <v>280394652542.3729</v>
       </c>
     </row>
     <row r="183">
@@ -2827,13 +2827,13 @@
         <v>39630</v>
       </c>
       <c r="B183" t="n">
-        <v>605561100000</v>
+        <v>605561126000</v>
       </c>
       <c r="C183" t="n">
         <v>0.4854133294500267</v>
       </c>
       <c r="D183" t="n">
-        <v>293947429736.4206</v>
+        <v>293947442357.1672</v>
       </c>
     </row>
     <row r="184">
@@ -2841,13 +2841,13 @@
         <v>39661</v>
       </c>
       <c r="B184" t="n">
-        <v>614791000000</v>
+        <v>614791029000</v>
       </c>
       <c r="C184" t="n">
         <v>0.4407227853680035</v>
       </c>
       <c r="D184" t="n">
-        <v>270952401939.1803</v>
+        <v>270952414720.141</v>
       </c>
     </row>
     <row r="185">
@@ -2869,13 +2869,13 @@
         <v>39722</v>
       </c>
       <c r="B186" t="n">
-        <v>627470900000</v>
+        <v>627470869000</v>
       </c>
       <c r="C186" t="n">
         <v>0.3608154429009561</v>
       </c>
       <c r="D186" t="n">
-        <v>226401190690.9615</v>
+        <v>226401179505.6828</v>
       </c>
     </row>
     <row r="187">
@@ -2883,13 +2883,13 @@
         <v>39753</v>
       </c>
       <c r="B187" t="n">
-        <v>639993500000</v>
+        <v>639993542000</v>
       </c>
       <c r="C187" t="n">
         <v>0.3358973497699103</v>
       </c>
       <c r="D187" t="n">
-        <v>214972120519.9691</v>
+        <v>214972134627.6578</v>
       </c>
     </row>
     <row r="188">
@@ -2897,13 +2897,13 @@
         <v>39783</v>
       </c>
       <c r="B188" t="n">
-        <v>660239900000</v>
+        <v>660239876000</v>
       </c>
       <c r="C188" t="n">
         <v>0.3372795035245708</v>
       </c>
       <c r="D188" t="n">
-        <v>222685385679.1123</v>
+        <v>222685377584.4042</v>
       </c>
     </row>
     <row r="189">
@@ -2911,13 +2911,13 @@
         <v>39814</v>
       </c>
       <c r="B189" t="n">
-        <v>663028000000</v>
+        <v>663027986000</v>
       </c>
       <c r="C189" t="n">
         <v>0.2873728375193977</v>
       </c>
       <c r="D189" t="n">
-        <v>190536237714.8112</v>
+        <v>190536233691.5915</v>
       </c>
     </row>
     <row r="190">
@@ -2925,13 +2925,13 @@
         <v>39845</v>
       </c>
       <c r="B190" t="n">
-        <v>674154700000</v>
+        <v>674154748000</v>
       </c>
       <c r="C190" t="n">
         <v>0.2732987154960372</v>
       </c>
       <c r="D190" t="n">
-        <v>184245613555.6163</v>
+        <v>184245626673.9547</v>
       </c>
     </row>
     <row r="191">
@@ -2939,13 +2939,13 @@
         <v>39873</v>
       </c>
       <c r="B191" t="n">
-        <v>678861300000</v>
+        <v>678861293000</v>
       </c>
       <c r="C191" t="n">
         <v>0.2862049227246709</v>
       </c>
       <c r="D191" t="n">
-        <v>194293445907.2696</v>
+        <v>194293443903.8351</v>
       </c>
     </row>
     <row r="192">
@@ -2953,13 +2953,13 @@
         <v>39904</v>
       </c>
       <c r="B192" t="n">
-        <v>675202100000</v>
+        <v>675202149000</v>
       </c>
       <c r="C192" t="n">
         <v>0.2988375220392673</v>
       </c>
       <c r="D192" t="n">
-        <v>201775722439.7095</v>
+        <v>201775737082.7481</v>
       </c>
     </row>
     <row r="193">
@@ -2967,13 +2967,13 @@
         <v>39934</v>
       </c>
       <c r="B193" t="n">
-        <v>680445200000</v>
+        <v>680445217000</v>
       </c>
       <c r="C193" t="n">
         <v>0.3150896430034344</v>
       </c>
       <c r="D193" t="n">
-        <v>214401235151.4005</v>
+        <v>214401240507.9245</v>
       </c>
     </row>
     <row r="194">
@@ -2981,13 +2981,13 @@
         <v>39965</v>
       </c>
       <c r="B194" t="n">
-        <v>687454600000</v>
+        <v>687454585000</v>
       </c>
       <c r="C194" t="n">
         <v>0.3151293606025273</v>
       </c>
       <c r="D194" t="n">
-        <v>216637128541.2662</v>
+        <v>216637123814.3258</v>
       </c>
     </row>
     <row r="195">
@@ -2995,13 +2995,13 @@
         <v>39995</v>
       </c>
       <c r="B195" t="n">
-        <v>682404800000</v>
+        <v>682404833000</v>
       </c>
       <c r="C195" t="n">
         <v>0.3443526170798898</v>
       </c>
       <c r="D195" t="n">
-        <v>234987878787.8788</v>
+        <v>234987890151.5152</v>
       </c>
     </row>
     <row r="196">
@@ -3009,13 +3009,13 @@
         <v>40026</v>
       </c>
       <c r="B196" t="n">
-        <v>678889800000</v>
+        <v>678889774000</v>
       </c>
       <c r="C196" t="n">
         <v>0.3505082369435681</v>
       </c>
       <c r="D196" t="n">
-        <v>237956466876.9716</v>
+        <v>237956457763.7574</v>
       </c>
     </row>
     <row r="197">
@@ -3023,13 +3023,13 @@
         <v>40057</v>
       </c>
       <c r="B197" t="n">
-        <v>685513800000</v>
+        <v>685513764000</v>
       </c>
       <c r="C197" t="n">
         <v>0.3485535029627048</v>
       </c>
       <c r="D197" t="n">
-        <v>238938236319.275</v>
+        <v>238938223771.3489</v>
       </c>
     </row>
     <row r="198">
@@ -3037,13 +3037,13 @@
         <v>40087</v>
       </c>
       <c r="B198" t="n">
-        <v>698940700000</v>
+        <v>698940699000</v>
       </c>
       <c r="C198" t="n">
         <v>0.3456977909911156</v>
       </c>
       <c r="D198" t="n">
-        <v>241622256023.784</v>
+        <v>241622255678.0862</v>
       </c>
     </row>
     <row r="199">
@@ -3051,13 +3051,13 @@
         <v>40118</v>
       </c>
       <c r="B199" t="n">
-        <v>694897400000</v>
+        <v>694897356000</v>
       </c>
       <c r="C199" t="n">
         <v>0.3610499332057624</v>
       </c>
       <c r="D199" t="n">
-        <v>250892659854.8579</v>
+        <v>250892643968.6609</v>
       </c>
     </row>
     <row r="200">
@@ -3065,13 +3065,13 @@
         <v>40148</v>
       </c>
       <c r="B200" t="n">
-        <v>714757800000</v>
+        <v>714757821000</v>
       </c>
       <c r="C200" t="n">
         <v>0.3493938017539569</v>
       </c>
       <c r="D200" t="n">
-        <v>249731945075.2944</v>
+        <v>249731952412.5642</v>
       </c>
     </row>
     <row r="201">
@@ -3079,13 +3079,13 @@
         <v>40179</v>
       </c>
       <c r="B201" t="n">
-        <v>705346000000</v>
+        <v>705346047000</v>
       </c>
       <c r="C201" t="n">
         <v>0.3427122245450495</v>
       </c>
       <c r="D201" t="n">
-        <v>241730696733.9525</v>
+        <v>241730712841.4271</v>
       </c>
     </row>
     <row r="202">
@@ -3093,13 +3093,13 @@
         <v>40210</v>
       </c>
       <c r="B202" t="n">
-        <v>711014100000</v>
+        <v>711014143000</v>
       </c>
       <c r="C202" t="n">
         <v>0.3463563313937379</v>
       </c>
       <c r="D202" t="n">
-        <v>246264235245.2203</v>
+        <v>246264250138.5425</v>
       </c>
     </row>
     <row r="203">
@@ -3107,13 +3107,13 @@
         <v>40238</v>
       </c>
       <c r="B203" t="n">
-        <v>712761500000</v>
+        <v>712761519000</v>
       </c>
       <c r="C203" t="n">
         <v>0.3506926179203927</v>
       </c>
       <c r="D203" t="n">
-        <v>249960196387.866</v>
+        <v>249960203051.0258</v>
       </c>
     </row>
     <row r="204">
@@ -3121,13 +3121,13 @@
         <v>40269</v>
       </c>
       <c r="B204" t="n">
-        <v>713066900000</v>
+        <v>713066938000</v>
       </c>
       <c r="C204" t="n">
         <v>0.3424657534246575</v>
       </c>
       <c r="D204" t="n">
-        <v>244200993150.6849</v>
+        <v>244201006164.3835</v>
       </c>
     </row>
     <row r="205">
@@ -3135,13 +3135,13 @@
         <v>40299</v>
       </c>
       <c r="B205" t="n">
-        <v>730147700000</v>
+        <v>730147686000</v>
       </c>
       <c r="C205" t="n">
         <v>0.3024620410138528</v>
       </c>
       <c r="D205" t="n">
-        <v>220841963583.5703</v>
+        <v>220841959349.1017</v>
       </c>
     </row>
     <row r="206">
@@ -3149,13 +3149,13 @@
         <v>40330</v>
       </c>
       <c r="B206" t="n">
-        <v>736375600000</v>
+        <v>736375596000</v>
       </c>
       <c r="C206" t="n">
         <v>0.2950461747263447</v>
       </c>
       <c r="D206" t="n">
-        <v>217264803941.8169</v>
+        <v>217264802761.6322</v>
       </c>
     </row>
     <row r="207">
@@ -3163,13 +3163,13 @@
         <v>40360</v>
       </c>
       <c r="B207" t="n">
-        <v>734376000000</v>
+        <v>734376016000</v>
       </c>
       <c r="C207" t="n">
         <v>0.3259452411994785</v>
       </c>
       <c r="D207" t="n">
-        <v>239366362451.1082</v>
+        <v>239366367666.2321</v>
       </c>
     </row>
     <row r="208">
@@ -3177,13 +3177,13 @@
         <v>40391</v>
       </c>
       <c r="B208" t="n">
-        <v>739043400000</v>
+        <v>739043378000</v>
       </c>
       <c r="C208" t="n">
         <v>0.3176317377632373</v>
       </c>
       <c r="D208" t="n">
-        <v>234743639424.4513</v>
+        <v>234743632436.5531</v>
       </c>
     </row>
     <row r="209">
@@ -3191,13 +3191,13 @@
         <v>40422</v>
       </c>
       <c r="B209" t="n">
-        <v>744491800000</v>
+        <v>744491803000</v>
       </c>
       <c r="C209" t="n">
         <v>0.3440801018477102</v>
       </c>
       <c r="D209" t="n">
-        <v>256164814368.7851</v>
+        <v>256164815401.0254</v>
       </c>
     </row>
     <row r="210">
@@ -3205,13 +3205,13 @@
         <v>40452</v>
       </c>
       <c r="B210" t="n">
-        <v>748187100000</v>
+        <v>748187115000</v>
       </c>
       <c r="C210" t="n">
         <v>0.3521126760563381</v>
       </c>
       <c r="D210" t="n">
-        <v>263446161971.831</v>
+        <v>263446167253.5211</v>
       </c>
     </row>
     <row r="211">
@@ -3219,13 +3219,13 @@
         <v>40483</v>
       </c>
       <c r="B211" t="n">
-        <v>754637700000</v>
+        <v>754637689000</v>
       </c>
       <c r="C211" t="n">
         <v>0.3229244033971648</v>
       </c>
       <c r="D211" t="n">
-        <v>243690929053.5086</v>
+        <v>243690925501.3402</v>
       </c>
     </row>
     <row r="212">
@@ -3233,13 +3233,13 @@
         <v>40513</v>
       </c>
       <c r="B212" t="n">
-        <v>774657900000</v>
+        <v>774657904000</v>
       </c>
       <c r="C212" t="n">
         <v>0.3385813441679363</v>
       </c>
       <c r="D212" t="n">
-        <v>262284713052.3108</v>
+        <v>262284714406.6362</v>
       </c>
     </row>
     <row r="213">
@@ -3247,13 +3247,13 @@
         <v>40544</v>
       </c>
       <c r="B213" t="n">
-        <v>761148800000</v>
+        <v>761148796000</v>
       </c>
       <c r="C213" t="n">
         <v>0.3485656523406184</v>
       </c>
       <c r="D213" t="n">
-        <v>265310328000.2789</v>
+        <v>265310326606.0163</v>
       </c>
     </row>
     <row r="214">
@@ -3261,13 +3261,13 @@
         <v>40575</v>
       </c>
       <c r="B214" t="n">
-        <v>768891400000</v>
+        <v>768891436000</v>
       </c>
       <c r="C214" t="n">
         <v>0.3492595697122101</v>
       </c>
       <c r="D214" t="n">
-        <v>268542679519.4188</v>
+        <v>268542692092.7633</v>
       </c>
     </row>
     <row r="215">
@@ -3275,13 +3275,13 @@
         <v>40603</v>
       </c>
       <c r="B215" t="n">
-        <v>792669600000</v>
+        <v>792669573000</v>
       </c>
       <c r="C215" t="n">
         <v>0.3525471531817381</v>
       </c>
       <c r="D215" t="n">
-        <v>279453410893.707</v>
+        <v>279453401374.9339</v>
       </c>
     </row>
     <row r="216">
@@ -3289,13 +3289,13 @@
         <v>40634</v>
       </c>
       <c r="B216" t="n">
-        <v>779152300000</v>
+        <v>779152287000</v>
       </c>
       <c r="C216" t="n">
         <v>0.3769204094863329</v>
       </c>
       <c r="D216" t="n">
-        <v>293678403968.2181</v>
+        <v>293678399068.2527</v>
       </c>
     </row>
     <row r="217">
@@ -3303,13 +3303,13 @@
         <v>40664</v>
       </c>
       <c r="B217" t="n">
-        <v>783468500000</v>
+        <v>783468524000</v>
       </c>
       <c r="C217" t="n">
         <v>0.3648995796356843</v>
       </c>
       <c r="D217" t="n">
-        <v>285887326307.8001</v>
+        <v>285887335065.3901</v>
       </c>
     </row>
     <row r="218">
@@ -3317,13 +3317,13 @@
         <v>40695</v>
       </c>
       <c r="B218" t="n">
-        <v>788125200000</v>
+        <v>788125220000</v>
       </c>
       <c r="C218" t="n">
         <v>0.364590928977687</v>
       </c>
       <c r="D218" t="n">
-        <v>287343298818.7254</v>
+        <v>287343306110.5439</v>
       </c>
     </row>
     <row r="219">
@@ -3331,13 +3331,13 @@
         <v>40725</v>
       </c>
       <c r="B219" t="n">
-        <v>787548100000</v>
+        <v>787548051000</v>
       </c>
       <c r="C219" t="n">
         <v>0.3605058618253132</v>
       </c>
       <c r="D219" t="n">
-        <v>283915706519.388</v>
+        <v>283915688854.6008</v>
       </c>
     </row>
     <row r="220">
@@ -3345,13 +3345,13 @@
         <v>40756</v>
       </c>
       <c r="B220" t="n">
-        <v>800229700000</v>
+        <v>800229722000</v>
       </c>
       <c r="C220" t="n">
         <v>0.3480318797201823</v>
       </c>
       <c r="D220" t="n">
-        <v>278505446698.9176</v>
+        <v>278505454355.619</v>
       </c>
     </row>
     <row r="221">
@@ -3359,13 +3359,13 @@
         <v>40787</v>
       </c>
       <c r="B221" t="n">
-        <v>814265200000</v>
+        <v>814265155000</v>
       </c>
       <c r="C221" t="n">
         <v>0.3031037827352085</v>
       </c>
       <c r="D221" t="n">
-        <v>246806862269.6411</v>
+        <v>246806848629.9709</v>
       </c>
     </row>
     <row r="222">
@@ -3373,13 +3373,13 @@
         <v>40817</v>
       </c>
       <c r="B222" t="n">
-        <v>817584900000</v>
+        <v>817584867000</v>
       </c>
       <c r="C222" t="n">
         <v>0.3154275620603728</v>
       </c>
       <c r="D222" t="n">
-        <v>257888811784.3737</v>
+        <v>257888801375.2642</v>
       </c>
     </row>
     <row r="223">
@@ -3387,13 +3387,13 @@
         <v>40848</v>
       </c>
       <c r="B223" t="n">
-        <v>836794000000</v>
+        <v>836794031000</v>
       </c>
       <c r="C223" t="n">
         <v>0.2988553838797406</v>
       </c>
       <c r="D223" t="n">
-        <v>250080392098.2636</v>
+        <v>250080401362.7805</v>
       </c>
     </row>
     <row r="224">
@@ -3401,13 +3401,13 @@
         <v>40878</v>
       </c>
       <c r="B224" t="n">
-        <v>863745500000</v>
+        <v>863745521000</v>
       </c>
       <c r="C224" t="n">
         <v>0.2903010421807414</v>
       </c>
       <c r="D224" t="n">
-        <v>250746218828.9256</v>
+        <v>250746224925.2475</v>
       </c>
     </row>
     <row r="225">
@@ -3415,13 +3415,13 @@
         <v>40909</v>
       </c>
       <c r="B225" t="n">
-        <v>855202900000</v>
+        <v>855202858000</v>
       </c>
       <c r="C225" t="n">
         <v>0.3104144032283098</v>
       </c>
       <c r="D225" t="n">
-        <v>265467297842.6199</v>
+        <v>265467284805.215</v>
       </c>
     </row>
     <row r="226">
@@ -3429,13 +3429,13 @@
         <v>40940</v>
       </c>
       <c r="B226" t="n">
-        <v>860213900000</v>
+        <v>860213872000</v>
       </c>
       <c r="C226" t="n">
         <v>0.3226951498918971</v>
       </c>
       <c r="D226" t="n">
-        <v>277586853399.5934</v>
+        <v>277586844364.1292</v>
       </c>
     </row>
     <row r="227">
@@ -3443,13 +3443,13 @@
         <v>40969</v>
       </c>
       <c r="B227" t="n">
-        <v>859995000000</v>
+        <v>859994951000</v>
       </c>
       <c r="C227" t="n">
         <v>0.3213883978788366</v>
       </c>
       <c r="D227" t="n">
-        <v>276392415233.8101</v>
+        <v>276392399485.7786</v>
       </c>
     </row>
     <row r="228">
@@ -3457,13 +3457,13 @@
         <v>41000</v>
       </c>
       <c r="B228" t="n">
-        <v>854927200000</v>
+        <v>854927240000</v>
       </c>
       <c r="C228" t="n">
         <v>0.317450239674931</v>
       </c>
       <c r="D228" t="n">
-        <v>271396844544.6176</v>
+        <v>271396857242.6272</v>
       </c>
     </row>
     <row r="229">
@@ -3471,13 +3471,13 @@
         <v>41030</v>
       </c>
       <c r="B229" t="n">
-        <v>867102000000</v>
+        <v>867102006000</v>
       </c>
       <c r="C229" t="n">
         <v>0.2817298211015636</v>
       </c>
       <c r="D229" t="n">
-        <v>244288491336.808</v>
+        <v>244288493027.1869</v>
       </c>
     </row>
     <row r="230">
@@ -3485,13 +3485,13 @@
         <v>41061</v>
       </c>
       <c r="B230" t="n">
-        <v>868777900000</v>
+        <v>868777851000</v>
       </c>
       <c r="C230" t="n">
         <v>0.299895036737142</v>
       </c>
       <c r="D230" t="n">
-        <v>260542180236.9171</v>
+        <v>260542165542.0603</v>
       </c>
     </row>
     <row r="231">
@@ -3499,13 +3499,13 @@
         <v>41091</v>
       </c>
       <c r="B231" t="n">
-        <v>869059200000</v>
+        <v>869059232000</v>
       </c>
       <c r="C231" t="n">
         <v>0.2994549919147153</v>
       </c>
       <c r="D231" t="n">
-        <v>260244115709.4089</v>
+        <v>260244125291.9687</v>
       </c>
     </row>
     <row r="232">
@@ -3513,13 +3513,13 @@
         <v>41122</v>
       </c>
       <c r="B232" t="n">
-        <v>872955400000</v>
+        <v>872955403000</v>
       </c>
       <c r="C232" t="n">
         <v>0.3017501508750755</v>
       </c>
       <c r="D232" t="n">
-        <v>263414423657.2119</v>
+        <v>263414424562.4623</v>
       </c>
     </row>
     <row r="233">
@@ -3541,13 +3541,13 @@
         <v>41183</v>
       </c>
       <c r="B234" t="n">
-        <v>879012200000</v>
+        <v>879012171000</v>
       </c>
       <c r="C234" t="n">
         <v>0.3135307322823783</v>
       </c>
       <c r="D234" t="n">
-        <v>275597338751.1444</v>
+        <v>275597329658.7532</v>
       </c>
     </row>
     <row r="235">
@@ -3555,13 +3555,13 @@
         <v>41214</v>
       </c>
       <c r="B235" t="n">
-        <v>882074700000</v>
+        <v>882074719000</v>
       </c>
       <c r="C235" t="n">
         <v>0.3166861956487316</v>
       </c>
       <c r="D235" t="n">
-        <v>279340881020.9963</v>
+        <v>279340887038.034</v>
       </c>
     </row>
     <row r="236">
@@ -3569,13 +3569,13 @@
         <v>41244</v>
       </c>
       <c r="B236" t="n">
-        <v>900336700000</v>
+        <v>900336731000</v>
       </c>
       <c r="C236" t="n">
         <v>0.3235512990584657</v>
       </c>
       <c r="D236" t="n">
-        <v>291305108875.0121</v>
+        <v>291305118905.1024</v>
       </c>
     </row>
     <row r="237">
@@ -3583,13 +3583,13 @@
         <v>41275</v>
       </c>
       <c r="B237" t="n">
-        <v>895716800000</v>
+        <v>895716818000</v>
       </c>
       <c r="C237" t="n">
         <v>0.3238866396761134</v>
       </c>
       <c r="D237" t="n">
-        <v>290110704453.4413</v>
+        <v>290110710283.4008</v>
       </c>
     </row>
     <row r="238">
@@ -3597,13 +3597,13 @@
         <v>41306</v>
       </c>
       <c r="B238" t="n">
-        <v>904415000000</v>
+        <v>904415031000</v>
       </c>
       <c r="C238" t="n">
         <v>0.3148713750432948</v>
       </c>
       <c r="D238" t="n">
-        <v>284774394659.7815</v>
+        <v>284774404420.7941</v>
       </c>
     </row>
     <row r="239">
@@ -3611,13 +3611,13 @@
         <v>41334</v>
       </c>
       <c r="B239" t="n">
-        <v>915839400000</v>
+        <v>915839384000</v>
       </c>
       <c r="C239" t="n">
         <v>0.3071724773460298</v>
       </c>
       <c r="D239" t="n">
-        <v>281320657349.1016</v>
+        <v>281320652434.3419</v>
       </c>
     </row>
     <row r="240">
@@ -3625,13 +3625,13 @@
         <v>41365</v>
       </c>
       <c r="B240" t="n">
-        <v>914731600000</v>
+        <v>914731599000</v>
       </c>
       <c r="C240" t="n">
         <v>0.3166761669516752</v>
       </c>
       <c r="D240" t="n">
-        <v>289673696877.573</v>
+        <v>289673696560.8969</v>
       </c>
     </row>
     <row r="241">
@@ -3639,13 +3639,13 @@
         <v>41395</v>
       </c>
       <c r="B241" t="n">
-        <v>920112100000</v>
+        <v>920112136000</v>
       </c>
       <c r="C241" t="n">
         <v>0.3037205770690964</v>
       </c>
       <c r="D241" t="n">
-        <v>279456977980.2582</v>
+        <v>279456988914.199</v>
       </c>
     </row>
     <row r="242">
@@ -3653,13 +3653,13 @@
         <v>41426</v>
       </c>
       <c r="B242" t="n">
-        <v>927344500000</v>
+        <v>927344506000</v>
       </c>
       <c r="C242" t="n">
         <v>0.3010687942194792</v>
       </c>
       <c r="D242" t="n">
-        <v>279194490441.0658</v>
+        <v>279194492247.4786</v>
       </c>
     </row>
     <row r="243">
@@ -3667,13 +3667,13 @@
         <v>41456</v>
       </c>
       <c r="B243" t="n">
-        <v>921661500000</v>
+        <v>921661484000</v>
       </c>
       <c r="C243" t="n">
         <v>0.3127932436659368</v>
       </c>
       <c r="D243" t="n">
-        <v>288289490147.0128</v>
+        <v>288289485142.3209</v>
       </c>
     </row>
     <row r="244">
@@ -3681,13 +3681,13 @@
         <v>41487</v>
       </c>
       <c r="B244" t="n">
-        <v>928358800000</v>
+        <v>928358847000</v>
       </c>
       <c r="C244" t="n">
         <v>0.3100582909587002</v>
       </c>
       <c r="D244" t="n">
-        <v>287845342924.4698</v>
+        <v>287845357497.2095</v>
       </c>
     </row>
     <row r="245">
@@ -3695,13 +3695,13 @@
         <v>41518</v>
       </c>
       <c r="B245" t="n">
-        <v>931041800000</v>
+        <v>931041815000</v>
       </c>
       <c r="C245" t="n">
         <v>0.3202664616961312</v>
       </c>
       <c r="D245" t="n">
-        <v>298181462977.1971</v>
+        <v>298181467781.194</v>
       </c>
     </row>
     <row r="246">
@@ -3709,13 +3709,13 @@
         <v>41548</v>
       </c>
       <c r="B246" t="n">
-        <v>935095200000</v>
+        <v>935095233000</v>
       </c>
       <c r="C246" t="n">
         <v>0.3249285157265402</v>
       </c>
       <c r="D246" t="n">
-        <v>303839095399.0123</v>
+        <v>303839106121.6533</v>
       </c>
     </row>
     <row r="247">
@@ -3723,13 +3723,13 @@
         <v>41579</v>
       </c>
       <c r="B247" t="n">
-        <v>934713200000</v>
+        <v>934713236000</v>
       </c>
       <c r="C247" t="n">
         <v>0.3235827077400984</v>
       </c>
       <c r="D247" t="n">
-        <v>302457028216.4122</v>
+        <v>302457039865.3896</v>
       </c>
     </row>
     <row r="248">
@@ -3737,13 +3737,13 @@
         <v>41609</v>
       </c>
       <c r="B248" t="n">
-        <v>960344900000</v>
+        <v>960344913000</v>
       </c>
       <c r="C248" t="n">
         <v>0.3315100281783524</v>
       </c>
       <c r="D248" t="n">
-        <v>318363964859.937</v>
+        <v>318363969169.5674</v>
       </c>
     </row>
     <row r="249">
@@ -3751,13 +3751,13 @@
         <v>41640</v>
       </c>
       <c r="B249" t="n">
-        <v>947443300000</v>
+        <v>947443323000</v>
       </c>
       <c r="C249" t="n">
         <v>0.317450239674931</v>
       </c>
       <c r="D249" t="n">
-        <v>300766102663.4075</v>
+        <v>300766109964.7631</v>
       </c>
     </row>
     <row r="250">
@@ -3765,13 +3765,13 @@
         <v>41671</v>
       </c>
       <c r="B250" t="n">
-        <v>954284100000</v>
+        <v>954284053000</v>
       </c>
       <c r="C250" t="n">
         <v>0.3321817698644698</v>
       </c>
       <c r="D250" t="n">
-        <v>316995781291.5227</v>
+        <v>316995765678.9796</v>
       </c>
     </row>
     <row r="251">
@@ -3779,13 +3779,13 @@
         <v>41699</v>
       </c>
       <c r="B251" t="n">
-        <v>964623700000</v>
+        <v>964623741000</v>
       </c>
       <c r="C251" t="n">
         <v>0.3308738378056447</v>
       </c>
       <c r="D251" t="n">
-        <v>319168745657.2809</v>
+        <v>319168759223.1082</v>
       </c>
     </row>
     <row r="252">
@@ -3793,13 +3793,13 @@
         <v>41730</v>
       </c>
       <c r="B252" t="n">
-        <v>969753500000</v>
+        <v>969753516000</v>
       </c>
       <c r="C252" t="n">
         <v>0.3299894403379092</v>
       </c>
       <c r="D252" t="n">
-        <v>320008414730.7286</v>
+        <v>320008420010.5596</v>
       </c>
     </row>
     <row r="253">
@@ -3807,13 +3807,13 @@
         <v>41760</v>
       </c>
       <c r="B253" t="n">
-        <v>975000900000</v>
+        <v>975000902000</v>
       </c>
       <c r="C253" t="n">
         <v>0.3296196189597205</v>
       </c>
       <c r="D253" t="n">
-        <v>321379425143.3846</v>
+        <v>321379425802.6238</v>
       </c>
     </row>
     <row r="254">
@@ -3821,13 +3821,13 @@
         <v>41791</v>
       </c>
       <c r="B254" t="n">
-        <v>980089500000</v>
+        <v>980089488000</v>
       </c>
       <c r="C254" t="n">
         <v>0.3294458720432233</v>
       </c>
       <c r="D254" t="n">
-        <v>322886440007.9067</v>
+        <v>322886436054.5562</v>
       </c>
     </row>
     <row r="255">
@@ -3835,13 +3835,13 @@
         <v>41821</v>
       </c>
       <c r="B255" t="n">
-        <v>985769200000</v>
+        <v>985769156000</v>
       </c>
       <c r="C255" t="n">
         <v>0.3205744694492531</v>
       </c>
       <c r="D255" t="n">
-        <v>316012438289.4146</v>
+        <v>316012424184.1379</v>
       </c>
     </row>
     <row r="256">
@@ -3849,13 +3849,13 @@
         <v>41852</v>
       </c>
       <c r="B256" t="n">
-        <v>1003128400000</v>
+        <v>1003128364000</v>
       </c>
       <c r="C256" t="n">
         <v>0.3123243175713661</v>
       </c>
       <c r="D256" t="n">
-        <v>313301392966.4564</v>
+        <v>313301381722.7809</v>
       </c>
     </row>
     <row r="257">
@@ -3863,13 +3863,13 @@
         <v>41883</v>
       </c>
       <c r="B257" t="n">
-        <v>1003354300000</v>
+        <v>1003354341000</v>
       </c>
       <c r="C257" t="n">
         <v>0.3022700480609377</v>
       </c>
       <c r="D257" t="n">
-        <v>303283952483.1484</v>
+        <v>303283964876.2205</v>
       </c>
     </row>
     <row r="258">
@@ -3877,13 +3877,13 @@
         <v>41913</v>
       </c>
       <c r="B258" t="n">
-        <v>1011930600000</v>
+        <v>1011930555000</v>
       </c>
       <c r="C258" t="n">
         <v>0.2966566792251328</v>
       </c>
       <c r="D258" t="n">
-        <v>300195971402.2961</v>
+        <v>300195958052.7456</v>
       </c>
     </row>
     <row r="259">
@@ -3891,13 +3891,13 @@
         <v>41944</v>
       </c>
       <c r="B259" t="n">
-        <v>1017658800000</v>
+        <v>1017658848000</v>
       </c>
       <c r="C259" t="n">
         <v>0.2979560216911984</v>
       </c>
       <c r="D259" t="n">
-        <v>303217567487.0389</v>
+        <v>303217581788.928</v>
       </c>
     </row>
     <row r="260">
@@ -3905,13 +3905,13 @@
         <v>41974</v>
       </c>
       <c r="B260" t="n">
-        <v>1044571200000</v>
+        <v>1044552907000</v>
       </c>
       <c r="C260" t="n">
         <v>0.2825257804774686</v>
       </c>
       <c r="D260" t="n">
-        <v>295118293544.2859</v>
+        <v>295113125300.1837</v>
       </c>
     </row>
     <row r="261">
@@ -3919,13 +3919,13 @@
         <v>42005</v>
       </c>
       <c r="B261" t="n">
-        <v>1032424400000</v>
+        <v>1032424444000</v>
       </c>
       <c r="C261" t="n">
         <v>0.2699492495410863</v>
       </c>
       <c r="D261" t="n">
-        <v>278702191987.9063</v>
+        <v>278702203865.6733</v>
       </c>
     </row>
     <row r="262">
@@ -3933,13 +3933,13 @@
         <v>42036</v>
       </c>
       <c r="B262" t="n">
-        <v>1038760600000</v>
+        <v>1038760559000</v>
       </c>
       <c r="C262" t="n">
         <v>0.2701972439881113</v>
       </c>
       <c r="D262" t="n">
-        <v>280670251283.4369</v>
+        <v>280670240205.3499</v>
       </c>
     </row>
     <row r="263">
@@ -3947,13 +3947,13 @@
         <v>42064</v>
       </c>
       <c r="B263" t="n">
-        <v>1050848900000</v>
+        <v>1050848922000</v>
       </c>
       <c r="C263" t="n">
         <v>0.2637339451960862</v>
       </c>
       <c r="D263" t="n">
-        <v>277144526201.9675</v>
+        <v>277144532004.1143</v>
       </c>
     </row>
     <row r="264">
@@ -3961,13 +3961,13 @@
         <v>42095</v>
       </c>
       <c r="B264" t="n">
-        <v>1043441600000</v>
+        <v>1043441637000</v>
       </c>
       <c r="C264" t="n">
         <v>0.2777854940415012</v>
       </c>
       <c r="D264" t="n">
-        <v>289852940359.4544</v>
+        <v>289852950637.5177</v>
       </c>
     </row>
     <row r="265">
@@ -3975,13 +3975,13 @@
         <v>42125</v>
       </c>
       <c r="B265" t="n">
-        <v>1052741000000</v>
+        <v>1052740961000</v>
       </c>
       <c r="C265" t="n">
         <v>0.2674368848951648</v>
       </c>
       <c r="D265" t="n">
-        <v>281541773641.4207</v>
+        <v>281541763211.3821</v>
       </c>
     </row>
     <row r="266">
@@ -3989,13 +3989,13 @@
         <v>42156</v>
       </c>
       <c r="B266" t="n">
-        <v>1065897300000</v>
+        <v>1065897275000</v>
       </c>
       <c r="C266" t="n">
         <v>0.2659715942337358</v>
       </c>
       <c r="D266" t="n">
-        <v>283498404170.4346</v>
+        <v>283498397521.1448</v>
       </c>
     </row>
     <row r="267">
@@ -4003,13 +4003,13 @@
         <v>42186</v>
       </c>
       <c r="B267" t="n">
-        <v>1074074500000</v>
+        <v>1074074485000</v>
       </c>
       <c r="C267" t="n">
         <v>0.2670940170940171</v>
       </c>
       <c r="D267" t="n">
-        <v>286878872863.2479</v>
+        <v>286878868856.8376</v>
       </c>
     </row>
     <row r="268">
@@ -4017,13 +4017,13 @@
         <v>42217</v>
       </c>
       <c r="B268" t="n">
-        <v>1083208700000</v>
+        <v>1083208702000</v>
       </c>
       <c r="C268" t="n">
         <v>0.2651816494298594</v>
       </c>
       <c r="D268" t="n">
-        <v>287247069742.7738</v>
+        <v>287247070273.1371</v>
       </c>
     </row>
     <row r="269">
@@ -4031,13 +4031,13 @@
         <v>42248</v>
       </c>
       <c r="B269" t="n">
-        <v>1094310500000</v>
+        <v>1094310501000</v>
       </c>
       <c r="C269" t="n">
         <v>0.2633103375638527</v>
       </c>
       <c r="D269" t="n">
-        <v>288143267154.6685</v>
+        <v>288143267417.9788</v>
       </c>
     </row>
     <row r="270">
@@ -4045,13 +4045,13 @@
         <v>42278</v>
       </c>
       <c r="B270" t="n">
-        <v>1107298100000</v>
+        <v>1107298067000</v>
       </c>
       <c r="C270" t="n">
         <v>0.2580245639384869</v>
       </c>
       <c r="D270" t="n">
-        <v>285710109402.4151</v>
+        <v>285710100887.6045</v>
       </c>
     </row>
     <row r="271">
@@ -4059,13 +4059,13 @@
         <v>42309</v>
       </c>
       <c r="B271" t="n">
-        <v>1119991600000</v>
+        <v>1118293720000</v>
       </c>
       <c r="C271" t="n">
         <v>0.2475186257765897</v>
       </c>
       <c r="D271" t="n">
-        <v>277218781713.3239</v>
+        <v>276798524788.9904</v>
       </c>
     </row>
     <row r="272">
@@ -4073,13 +4073,13 @@
         <v>42339</v>
       </c>
       <c r="B272" t="n">
-        <v>1145667300000</v>
+        <v>1145258817000</v>
       </c>
       <c r="C272" t="n">
         <v>0.2552583214212783</v>
       </c>
       <c r="D272" t="n">
-        <v>292441111905.248</v>
+        <v>292336843220.3389</v>
       </c>
     </row>
     <row r="273">
@@ -4087,13 +4087,13 @@
         <v>42370</v>
       </c>
       <c r="B273" t="n">
-        <v>1140951300000</v>
+        <v>1140951337000</v>
       </c>
       <c r="C273" t="n">
         <v>0.2452483139178418</v>
       </c>
       <c r="D273" t="n">
-        <v>279816382587.3698</v>
+        <v>279816391661.5573</v>
       </c>
     </row>
     <row r="274">
@@ -4101,13 +4101,13 @@
         <v>42401</v>
       </c>
       <c r="B274" t="n">
-        <v>1150393400000</v>
+        <v>1150393358000</v>
       </c>
       <c r="C274" t="n">
         <v>0.2501125506477915</v>
       </c>
       <c r="D274" t="n">
-        <v>287727827522.385</v>
+        <v>287727817017.6579</v>
       </c>
     </row>
     <row r="275">
@@ -4115,13 +4115,13 @@
         <v>42430</v>
       </c>
       <c r="B275" t="n">
-        <v>1154736100000</v>
+        <v>1154736097000</v>
       </c>
       <c r="C275" t="n">
         <v>0.2684779982280452</v>
       </c>
       <c r="D275" t="n">
-        <v>310021236609.6599</v>
+        <v>310021235804.2259</v>
       </c>
     </row>
     <row r="276">
@@ -4129,13 +4129,13 @@
         <v>42461</v>
       </c>
       <c r="B276" t="n">
-        <v>1169793200000</v>
+        <v>1169793673000</v>
       </c>
       <c r="C276" t="n">
         <v>0.2619995808006707</v>
       </c>
       <c r="D276" t="n">
-        <v>306485328023.4752</v>
+        <v>306485451949.2769</v>
       </c>
     </row>
     <row r="277">
@@ -4143,13 +4143,13 @@
         <v>42491</v>
       </c>
       <c r="B277" t="n">
-        <v>1180640200000</v>
+        <v>1180640185000</v>
       </c>
       <c r="C277" t="n">
         <v>0.2539037704709915</v>
       </c>
       <c r="D277" t="n">
-        <v>299768998349.6255</v>
+        <v>299768994541.0689</v>
       </c>
     </row>
     <row r="278">
@@ -4157,13 +4157,13 @@
         <v>42522</v>
       </c>
       <c r="B278" t="n">
-        <v>1192033500000</v>
+        <v>1192033525000</v>
       </c>
       <c r="C278" t="n">
         <v>0.2540263171264543</v>
       </c>
       <c r="D278" t="n">
-        <v>302807879896.3572</v>
+        <v>302807886247.0152</v>
       </c>
     </row>
     <row r="279">
@@ -4171,13 +4171,13 @@
         <v>42552</v>
       </c>
       <c r="B279" t="n">
-        <v>1194740000000</v>
+        <v>1194740021000</v>
       </c>
       <c r="C279" t="n">
         <v>0.2566405748748877</v>
       </c>
       <c r="D279" t="n">
-        <v>306618760426.0234</v>
+        <v>306618765815.4755</v>
       </c>
     </row>
     <row r="280">
@@ -4325,13 +4325,13 @@
         <v>42887</v>
       </c>
       <c r="B290" t="n">
-        <v>1249467571000</v>
+        <v>1249015235000</v>
       </c>
       <c r="C290" t="n">
         <v>0.2702483582412237</v>
       </c>
       <c r="D290" t="n">
-        <v>337666559738.3996</v>
+        <v>337544316677.0262</v>
       </c>
     </row>
     <row r="291">
@@ -4339,13 +4339,13 @@
         <v>42917</v>
       </c>
       <c r="B291" t="n">
-        <v>1252694988000</v>
+        <v>1252247803000</v>
       </c>
       <c r="C291" t="n">
         <v>0.278249255683241</v>
       </c>
       <c r="D291" t="n">
-        <v>348561448009.1266</v>
+        <v>348437019115.7239</v>
       </c>
     </row>
     <row r="292">
@@ -4353,13 +4353,13 @@
         <v>42948</v>
       </c>
       <c r="B292" t="n">
-        <v>1259261600000</v>
+        <v>1259261618000</v>
       </c>
       <c r="C292" t="n">
         <v>0.2807253944191792</v>
       </c>
       <c r="D292" t="n">
-        <v>353506709336.9266</v>
+        <v>353506714389.9837</v>
       </c>
     </row>
     <row r="293">
@@ -4367,13 +4367,13 @@
         <v>42979</v>
       </c>
       <c r="B293" t="n">
-        <v>1266349000000</v>
+        <v>1266349040000</v>
       </c>
       <c r="C293" t="n">
         <v>0.2739951228868126</v>
       </c>
       <c r="D293" t="n">
-        <v>346973449872.5922</v>
+        <v>346973460832.3972</v>
       </c>
     </row>
     <row r="294">
@@ -4381,13 +4381,13 @@
         <v>43009</v>
       </c>
       <c r="B294" t="n">
-        <v>1277419000000</v>
+        <v>1277419021000</v>
       </c>
       <c r="C294" t="n">
         <v>0.2748158733648456</v>
       </c>
       <c r="D294" t="n">
-        <v>351055018137.8477</v>
+        <v>351055023908.981</v>
       </c>
     </row>
     <row r="295">
@@ -4409,13 +4409,13 @@
         <v>43070</v>
       </c>
       <c r="B296" t="n">
-        <v>1312831898000</v>
+        <v>1312847319000</v>
       </c>
       <c r="C296" t="n">
         <v>0.2875959851600471</v>
       </c>
       <c r="D296" t="n">
-        <v>377565183054.8445</v>
+        <v>377569618072.5317</v>
       </c>
     </row>
     <row r="297">
@@ -4423,13 +4423,13 @@
         <v>43101</v>
       </c>
       <c r="B297" t="n">
-        <v>1296258300000</v>
+        <v>1296258294000</v>
       </c>
       <c r="C297" t="n">
         <v>0.2991683120923831</v>
       </c>
       <c r="D297" t="n">
-        <v>387799407646.742</v>
+        <v>387799405851.7322</v>
       </c>
     </row>
     <row r="298">
@@ -4465,13 +4465,13 @@
         <v>43191</v>
       </c>
       <c r="B300" t="n">
-        <v>1313095300000</v>
+        <v>1313095269000</v>
       </c>
       <c r="C300" t="n">
         <v>0.2850708401037658</v>
       </c>
       <c r="D300" t="n">
-        <v>374325180307.3064</v>
+        <v>374325171470.1104</v>
       </c>
     </row>
     <row r="301">
@@ -4563,13 +4563,13 @@
         <v>43405</v>
       </c>
       <c r="B307" t="n">
-        <v>1395254200000</v>
+        <v>1395254167000</v>
       </c>
       <c r="C307" t="n">
         <v>0.2639009843506716</v>
       </c>
       <c r="D307" t="n">
-        <v>368208956799.4088</v>
+        <v>368208948090.6763</v>
       </c>
     </row>
     <row r="308">
@@ -4577,13 +4577,13 @@
         <v>43435</v>
       </c>
       <c r="B308" t="n">
-        <v>1428234100000</v>
+        <v>1428233205000</v>
       </c>
       <c r="C308" t="n">
         <v>0.2674368848951648</v>
       </c>
       <c r="D308" t="n">
-        <v>381962478605.0493</v>
+        <v>381962239249.0372</v>
       </c>
     </row>
     <row r="309">
@@ -4619,13 +4619,13 @@
         <v>43525</v>
       </c>
       <c r="B311" t="n">
-        <v>1442834343000</v>
+        <v>1442834344000</v>
       </c>
       <c r="C311" t="n">
         <v>0.2607765926930399</v>
       </c>
       <c r="D311" t="n">
-        <v>376257423788.0408</v>
+        <v>376257424048.8174</v>
       </c>
     </row>
     <row r="312">
@@ -4633,13 +4633,13 @@
         <v>43556</v>
       </c>
       <c r="B312" t="n">
-        <v>1453094800000</v>
+        <v>1453094839000</v>
       </c>
       <c r="C312" t="n">
         <v>0.2618212284652039</v>
       </c>
       <c r="D312" t="n">
-        <v>380451065612.3998</v>
+        <v>380451075823.4277</v>
       </c>
     </row>
     <row r="313">
@@ -4647,13 +4647,13 @@
         <v>43586</v>
       </c>
       <c r="B313" t="n">
-        <v>1467430900000</v>
+        <v>1467430917000</v>
       </c>
       <c r="C313" t="n">
         <v>0.2609875769913352</v>
       </c>
       <c r="D313" t="n">
-        <v>382981234993.2144</v>
+        <v>382981239430.0032</v>
       </c>
     </row>
     <row r="314">
@@ -4745,13 +4745,13 @@
         <v>43800</v>
       </c>
       <c r="B320" t="n">
-        <v>1552642938000</v>
+        <v>1552647893000</v>
       </c>
       <c r="C320" t="n">
         <v>0.2636783124588002</v>
       </c>
       <c r="D320" t="n">
-        <v>409398269742.9136</v>
+        <v>409399576268.9518</v>
       </c>
     </row>
     <row r="321">
@@ -4787,13 +4787,13 @@
         <v>43891</v>
       </c>
       <c r="B323" t="n">
-        <v>1617386270000</v>
+        <v>1617386266000</v>
       </c>
       <c r="C323" t="n">
         <v>0.2423972114624793</v>
       </c>
       <c r="D323" t="n">
-        <v>392049921705.7006</v>
+        <v>392049920736.1118</v>
       </c>
     </row>
     <row r="324">
@@ -4913,13 +4913,13 @@
         <v>44166</v>
       </c>
       <c r="B332" t="n">
-        <v>1814671271000</v>
+        <v>1814748873000</v>
       </c>
       <c r="C332" t="n">
         <v>0.2683339147234819</v>
       </c>
       <c r="D332" t="n">
-        <v>486937846083.6665</v>
+        <v>486958669332.1169</v>
       </c>
     </row>
     <row r="333">
@@ -4927,13 +4927,13 @@
         <v>44197</v>
       </c>
       <c r="B333" t="n">
-        <v>1812420609000</v>
+        <v>1812420636000</v>
       </c>
       <c r="C333" t="n">
         <v>0.2686799752814423</v>
       </c>
       <c r="D333" t="n">
-        <v>486961124425.6965</v>
+        <v>486961131680.0559</v>
       </c>
     </row>
     <row r="334">
@@ -4941,13 +4941,13 @@
         <v>44228</v>
       </c>
       <c r="B334" t="n">
-        <v>1829432181000</v>
+        <v>1829434603000</v>
       </c>
       <c r="C334" t="n">
         <v>0.2674440373351876</v>
       </c>
       <c r="D334" t="n">
-        <v>489270728517.5577</v>
+        <v>489271376267.0162</v>
       </c>
     </row>
     <row r="335">
@@ -4955,13 +4955,13 @@
         <v>44256</v>
       </c>
       <c r="B335" t="n">
-        <v>1856225854000</v>
+        <v>1856144729000</v>
       </c>
       <c r="C335" t="n">
         <v>0.2534385272180306</v>
       </c>
       <c r="D335" t="n">
-        <v>470439146621.7911</v>
+        <v>470418586421.2706</v>
       </c>
     </row>
     <row r="336">
@@ -5081,13 +5081,13 @@
         <v>44531</v>
       </c>
       <c r="B344" t="n">
-        <v>1974640099000</v>
+        <v>1974496760000</v>
       </c>
       <c r="C344" t="n">
         <v>0.2480466327669602</v>
       </c>
       <c r="D344" t="n">
-        <v>489802827483.5669</v>
+        <v>489767272727.2727</v>
       </c>
     </row>
     <row r="345">
@@ -5179,13 +5179,13 @@
         <v>44743</v>
       </c>
       <c r="B351" t="n">
-        <v>2002463400000</v>
+        <v>2002463392000</v>
       </c>
       <c r="C351" t="n">
         <v>0.2160340469658018</v>
       </c>
       <c r="D351" t="n">
-        <v>432600272202.8992</v>
+        <v>432600270474.6268</v>
       </c>
     </row>
     <row r="352">
@@ -5193,13 +5193,13 @@
         <v>44774</v>
       </c>
       <c r="B352" t="n">
-        <v>2033757000000</v>
+        <v>2033757005000</v>
       </c>
       <c r="C352" t="n">
         <v>0.213031113194082</v>
       </c>
       <c r="D352" t="n">
-        <v>433253517676.2567</v>
+        <v>433253518741.4122</v>
       </c>
     </row>
     <row r="353">
@@ -5207,13 +5207,13 @@
         <v>44805</v>
       </c>
       <c r="B353" t="n">
-        <v>2052451000000</v>
+        <v>2052450999000</v>
       </c>
       <c r="C353" t="n">
         <v>0.201995717690785</v>
       </c>
       <c r="D353" t="n">
-        <v>414586312770.1693</v>
+        <v>414586312568.1736</v>
       </c>
     </row>
     <row r="354">
@@ -5221,13 +5221,13 @@
         <v>44835</v>
       </c>
       <c r="B354" t="n">
-        <v>2057872200000</v>
+        <v>2057872208000</v>
       </c>
       <c r="C354" t="n">
         <v>0.2096655833944858</v>
       </c>
       <c r="D354" t="n">
-        <v>431464975364.2939</v>
+        <v>431464977041.6186</v>
       </c>
     </row>
     <row r="355">
@@ -5249,13 +5249,13 @@
         <v>44896</v>
       </c>
       <c r="B356" t="n">
-        <v>2078216858000</v>
+        <v>2078248384000</v>
       </c>
       <c r="C356" t="n">
         <v>0.2284983091125126</v>
       </c>
       <c r="D356" t="n">
-        <v>474869038022.1187</v>
+        <v>474876241659.8117</v>
       </c>
     </row>
     <row r="357">
@@ -5340,6 +5340,48 @@
       </c>
       <c r="D362" t="n">
         <v>526945591798.7412</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2158437380000</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.2498513384536201</v>
+      </c>
+      <c r="D363" t="n">
+        <v>539288468361.3251</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2182060980000</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.2427255162771731</v>
+      </c>
+      <c r="D364" t="n">
+        <v>529641877918.7744</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2225679570000</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.2288434253283903</v>
+      </c>
+      <c r="D365" t="n">
+        <v>509332136482.2189</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Poland_M2 (PLN)</t>
+  </si>
+  <si>
+    <t>Poland_FX (USD)</t>
+  </si>
+  <si>
+    <t>Poland_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4965 +385,4869 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Poland_M2 (PLN)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Poland_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Poland_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>34121</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.5622399703389179</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>34151</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.5457025980431389</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>34182</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.508259219948044</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>34213</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.502765218758476</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>34243</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4895960784372477</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>34274</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4781943130253565</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>34304</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.4662004705473237</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>34335</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4616805405285593</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>34366</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.4580851849621316</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>34394</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.4513653558276494</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>34425</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.449842544987797</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>34455</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.4455335422778718</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>34486</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.4452359651550319</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>34516</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.4384042279002292</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>34547</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.433463387376277</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>34578</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.43205874319063</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>34608</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.4332755463627386</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>34639</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.414130114538492</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>34669</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4103405759484517</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>34700</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.4119464452648962</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>34731</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.4143703573634383</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>34759</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.4248088197821607</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>34790</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.4222081503998655</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>34820</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.4278074683290922</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>34851</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.4271678623778603</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>34881</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.4221190446959737</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>34912</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.4043181207643077</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>34943</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.4111842240521126</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>34973</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4076640731608296</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>35004</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.396589314445836</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>35034</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.405597222197661</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>35065</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.3921568704344484</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>35096</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.3907776444644185</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>35125</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.3864883726750927</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>35156</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.3757985705531809</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>35186</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.3731343186121633</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>35217</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.367579490415657</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>35247</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.3693990001277788</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>35278</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.3649501962868208</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>35309</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.3561887940091781</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>35339</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.3552145382319876</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>35370</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.3506557311263865</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>35400</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>140038726000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.3485049114901728</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>48804183809.82655</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>35431</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>138755527000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.3331667621683638</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>46228729663.55498</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>35462</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>141142528000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.3269362715680185</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>46144611864.00466</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>35490</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>144080767000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3252561307463033</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>46863152789.37967</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>35521</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>147471792000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.3161555375349007</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>46624023670.99506</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>35551</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>151110561000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.3118957137506973</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>47130736278.36328</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>35582</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>154073607000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.3042750665101175</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>46880757017.37872</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>35612</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>160056307000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.2885586395535891</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>46185630199.8916</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>35643</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>162082221000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.2877863383053709</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>46645048885.9919</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>35674</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>164710229000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.2926971970312461</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>48210222350.67466</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>35704</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>169848847000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.2869440541447361</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>48737116749.989</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>35735</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>173093794000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.28316578555385</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>49014240152.50629</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>35765</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>179378106000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.2836879352145266</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>50887404513.83249</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>35796</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>177942578000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.2819681399856321</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>50174137742.90826</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>35827</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>180545239000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.287315042593392</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>51873363033.31915</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>35855</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>182904341000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.2897710825254771</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>53000388890.17901</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>35886</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>185780882000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.2944207176840045</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>54697740610.40735</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>35916</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>190926763000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.286450878598411</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>54691139009.30058</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>35947</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>195272472000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.2867794674126167</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>56000135520.50511</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>35977</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>199468249000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.2912479934287462</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>58094727273.99552</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>36008</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>204921487000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.2699055388913477</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>55309444379.15129</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>36039</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>206446635000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.2799160259759721</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>57787721645.31203</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>36069</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>207413340000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.2919281924840915</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>60549801443.28831</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>36100</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>210561453000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.2870264089009162</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>60436697707.54906</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>36130</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>223678101000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.2849002857119666</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>63725954882.41013</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>36161</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>226255598000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.2725538360670061</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>61666831166.53442</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>36192</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>233296783000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.2534854290859265</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>59137335143.12129</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>36220</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>236660450000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.2503128980061123</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>59239163082.93065</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>36251</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>236676311000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.2528445057465387</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>59842304876.70907</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>36281</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>239913167000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.2520161328429859</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>60461988565.45346</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>36312</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>242376978000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.2551020408163265</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>61830861734.69388</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>36342</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>244091159000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.2592285358772294</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>63275393768.146</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>36373</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>247353256000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.2525890376357666</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>62478720889.11342</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>36404</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>252022439000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.2447980416156671</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>61694599510.40392</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>36434</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>256819715000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.2378404090855036</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>61082106076.82245</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>36465</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>261352729000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.2366863905325444</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>61858634082.84024</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>36495</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>268700545000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.2421307506053269</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>65060664648.91042</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>36526</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>260852624000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.23767082590612</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>61997058585.85859</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>36557</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>264431926000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.2398139044101777</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>63414452624.76318</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>36586</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>269598133000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.2429366178364065</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>65495258606.02969</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>36617</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>272969659000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.2236936292054403</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>61061573684.68147</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>36647</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>276690830000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.228310502283105</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>63171422374.42923</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>36678</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>291693383000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.2304147465437788</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>67210456912.4424</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>36708</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>284257695000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.2307869836141241</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>65602975998.15369</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>36739</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>284914891000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.2285191956124314</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>65108521709.32358</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>36770</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>288852124000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.221606648199446</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>64011551024.93075</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>36800</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>295448056000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.2159127712404189</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>63791008528.55447</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>36831</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>298749981000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.2237386732296678</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>66841924376.32845</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>36861</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>300424137000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.2428658166363085</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>72962753369.76321</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>36892</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>298976518000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.2455192732629511</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>73404497422.04762</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>36923</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>303598941000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.2482621648460775</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>75372130337.63655</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>36951</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>309065800000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.2447381302006852</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>75640186000.97894</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>36982</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>310319035000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.2534854245880862</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>78661352344.74019</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>37012</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>312736603000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.2520161290322581</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>78814668094.75806</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>37043</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>314724897000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.2496878901373283</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>78582995505.61798</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>37073</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>320801266000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.2350176263219741</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>75393952056.40424</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>37104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>324636133000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.2365464222353637</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>76791515789.47368</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>37135</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>326867489000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.2368265245707519</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>77410891415.03848</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>37165</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>330919544000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.244552591034702</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>80927231909.22208</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>37196</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>322359738000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.2461296118536021</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>79342277191.16887</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>37226</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>329469146000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.2526847757422615</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>83251837271.00441</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>37257</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>323454189000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.2400729821865847</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>77652611753.97321</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>37288</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>326183539000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.237129781129212</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>77347831211.02179</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>37316</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>320959393000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.2431315341599805</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>78035349623.1461</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>37347</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>319709617000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.2505826045555918</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>80113668529.3307</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>37377</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>324489529000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.2487438435898711</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>80714772648.12695</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>37408</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>324586696000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.2471271469170888</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>80214184109.72446</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>37438</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>327167081000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.239693192713327</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>78419722195.58965</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>37469</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>326017515000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.2399520095980804</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>78228557888.4223</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>37500</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>324017337000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.2411091018685955</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>78123529113.92406</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>37530</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>324620533000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.2482621648460775</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>80590996276.06754</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>37561</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>321562565000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.2492522432701895</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>80150190677.96611</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>37591</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>324346430000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.2626050420168067</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>85175007878.15126</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>37622</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>319758534000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.2617801047120419</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>83706422513.089</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>37653</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>323056954000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.2547770700636943</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>82307504203.82166</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>37681</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>322637850000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.2442002442002442</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>78788241758.24176</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>37712</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>321984990000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.2635046113306983</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>84844529644.26878</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>37742</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>325064664000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.2686366689053056</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>87324288515.78241</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>37773</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>327733066000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.2578648788035069</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>84510847343.99174</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>37803</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>327958022000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.2588125679382991</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>84879657849.78519</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>37834</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>329714070000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.2524933720489837</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>83250617346.29466</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>37865</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>331850367000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.2533826584908529</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>84085128211.6252</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>37895</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>337353334000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.2484472049689441</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>83814492919.25465</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>37926</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>339297820000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.2561803509670808</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>86921434609.96541</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>37956</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>342860220000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.2679600203649615</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>91872831533.53519</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>37987</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>336935975000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.2597605008182456</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>87522657609.68387</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>38018</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>340271244000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.2557544757033248</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>87025893606.13811</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>38047</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>342096455000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.2590673575129534</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>88626024611.39897</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>38078</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>350781270000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.2504696305572949</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>87860055103.31873</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>38108</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>346624725000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.2621231979030144</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>90858381389.25294</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>38139</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>350294502000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.2711202689513068</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>94971939594.40408</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>38169</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>349192627000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.274649821477616</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>95905692666.84976</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>38200</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>353147170000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.2739650968466617</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>96749998630.1745</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>38231</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>352678316000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.2852741484566669</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>100610006276.0313</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>38261</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>372303238000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.295185524101898</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>109898526433.8637</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>38292</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>359231343000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.3175107159866645</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>114059800920.7811</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>38322</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>368714137000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.3323805092069401</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>122553392607.8575</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>38353</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>366416955000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.321078824851501</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>117648725317.0653</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>38384</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>371693577000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.3404255319148936</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>126533983659.5745</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>38412</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>380308273000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.3165358318561661</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>120381195555.8369</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>38443</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>385623925000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.3004627125773692</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>115865610540.232</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>38473</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>392122961000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.2950287653046172</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>115687553031.4206</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>38504</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>390159927000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.2994818963193675</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>116845834805.786</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>38534</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>391150422000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.298569850416505</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>116785722986.8928</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>38565</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>397421797000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.3074936195073952</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>122204666830.6633</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>38596</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>401581220000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.3065791894046232</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>123116444907.7197</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>38626</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>407006481000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.3028375882014476</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>123256861088.3983</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>38657</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>408782113000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.3014681498899641</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>123234787314.2202</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>38687</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>415163519000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.3085943527233452</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>128117117420.1512</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>38718</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>410120206000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.3183395409543819</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>130557478114.1566</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>38749</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>417061959000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.315746266300401</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>131685756370.1809</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>38777</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>421150531000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.3093006711824565</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>130262141907.1479</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>38808</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>425273793000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.3267867063167871</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>138973822097.3171</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>38838</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>433601452000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.3256162287128391</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>141187669564.6511</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>38869</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>440505178000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.3147425406017877</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>138645718871.9627</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>38899</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>442798058000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.3243278305711413</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>143611733532.2544</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>38930</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>449012041000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.3250024375182813</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>145930007800.0585</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>38961</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>454205828000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.3194990255279721</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>145118319435.1257</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>38991</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>459026730000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.3305785123966942</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>151744373553.719</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>39022</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>466057044000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.3474514436607484</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>161932192766.0609</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>39052</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>481210466000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.3450774698919908</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>166054890092.8259</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>39083</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>488060833000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.3342581141157202</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>163138293612.3275</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>39114</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>495376461000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.3391670058336725</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>168015351037.851</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>39142</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>497294745000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.3456499948152501</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>171889926030.9011</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>39173</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>502083302000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.360386334150209</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>180943960645.8123</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>39203</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>504800537000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.3531073446327684</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>178248777189.2655</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>39234</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>506806993000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.3603214066947718</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>182613408640.5074</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>39264</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>511540906000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.3611020835590221</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>184718486982.2699</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>39295</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>521751550000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.3573853686430078</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>186466370036.8107</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>39326</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>523462956000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.3791037986200622</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>198446795056.4865</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>39356</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>527874019000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.3999680025597952</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>211132716982.6414</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>39387</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>536088887000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.405926527298559</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>217612700223.2596</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>39417</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>549344290999.9999</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.4056795131845842</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>222857724543.6105</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>39448</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>556007732000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.4137702747434625</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>230059472029.1294</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>39479</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>565581997000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.4315180806075775</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>244058857771.6406</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>39508</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>570176454000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.4491152429713465</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>256074936674.7508</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>39539</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>581982673000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.4536587578823209</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>264021536542.213</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>39569</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>589308477000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.4617657923900997</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>272122495844.1079</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>39600</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>595558242000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.4708097928436911</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>280394652542.3729</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>39630</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>605561126000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.4854133294500267</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>293947442357.1672</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>39661</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>614791029000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.4407227853680035</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>270952414720.141</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>39692</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>619703100000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.4161984434178216</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>257919465601.1987</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>39722</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>627470869000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.3608154429009561</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>226401179505.6828</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>39753</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>639993542000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.3358973497699103</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>214972134627.6578</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>39783</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>660239876000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.3372795035245708</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>222685377584.4042</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>39814</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>663027986000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.2873728375193977</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>190536233691.5915</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>39845</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>674154748000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.2732987154960372</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>184245626673.9547</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>39873</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>678861293000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.2862049227246709</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>194293443903.8351</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>39904</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>675202149000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.2988375220392673</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>201775737082.7481</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>39934</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>680445217000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.3150896430034344</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>214401240507.9245</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>39965</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>687454585000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.3151293606025273</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>216637123814.3258</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>39995</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>682404833000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.3443526170798898</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>234987890151.5152</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>40026</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>678889774000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.3505082369435681</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>237956457763.7574</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>40057</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>685513764000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.3485535029627048</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>238938223771.3489</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>40087</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>698940699000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.3456977909911156</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>241622255678.0862</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>40118</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>694897356000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.3610499332057624</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>250892643968.6609</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>40148</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>714757821000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.3493938017539569</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>249731952412.5642</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>40179</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>705346047000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.3427122245450495</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>241730712841.4271</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>40210</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>711014143000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.3463563313937379</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>246264250138.5425</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>40238</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>712761519000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.3506926179203927</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>249960203051.0258</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>40269</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>713066938000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.3424657534246575</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>244201006164.3835</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>40299</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>730147686000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.3024620410138528</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>220841959349.1017</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>40330</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>736375596000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.2950461747263447</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>217264802761.6322</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>40360</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>734376016000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.3259452411994785</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>239366367666.2321</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>40391</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>739043378000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.3176317377632373</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>234743632436.5531</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>40422</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>744491803000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.3440801018477102</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>256164815401.0254</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>40452</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>748187115000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.3521126760563381</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>263446167253.5211</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>40483</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>754637689000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.3229244033971648</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>243690925501.3402</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>40513</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>774657904000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.3385813441679363</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>262284714406.6362</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>40544</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>761148796000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.3485656523406184</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>265310326606.0163</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>40575</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>768891436000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.3492595697122101</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>268542692092.7633</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>40603</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>792669573000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.3525471531817381</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>279453401374.9339</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>40634</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>779152287000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.3769204094863329</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>293678399068.2527</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>40664</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>783468524000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.3648995796356843</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>285887335065.3901</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>40695</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>788125220000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.364590928977687</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>287343306110.5439</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>40725</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>787548051000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.3605058618253132</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>283915688854.6008</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>40756</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>800229722000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.3480318797201823</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>278505454355.619</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>40787</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>814265155000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.3031037827352085</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>246806848629.9709</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>40817</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>817584867000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.3154275620603728</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>257888801375.2642</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>40848</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>836794031000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.2988553838797406</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>250080401362.7805</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>40878</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>863745521000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.2903010421807414</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>250746224925.2475</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>40909</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>855202858000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.3104144032283098</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>265467284805.215</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>40940</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>860213872000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.3226951498918971</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>277586844364.1292</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>40969</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>859994951000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.3213883978788366</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>276392399485.7786</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>41000</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>854927240000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.317450239674931</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>271396857242.6272</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>41030</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>867102006000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.2817298211015636</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>244288493027.1869</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>41061</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>868777851000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.299895036737142</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>260542165542.0603</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>41091</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>869059232000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.2994549919147153</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>260244125291.9687</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>41122</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>872955403000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.3017501508750755</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>263414424562.4623</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>41153</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>874563200000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.3140506249607437</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>274657119527.6678</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>41183</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>879012171000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.3135307322823783</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>275597329658.7532</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>41214</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>882074719000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.3166861956487316</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>279340887038.034</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>41244</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>900336731000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.3235512990584657</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>291305118905.1024</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>41275</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>895716818000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.3238866396761134</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>290110710283.4008</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>41306</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>904415031000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.3148713750432948</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>284774404420.7941</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>41334</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>915839384000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.3071724773460298</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>281320652434.3419</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>41365</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>914731599000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.3166761669516752</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>289673696560.8969</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>41395</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>920112136000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.3037205770690964</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>279456988914.199</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>41426</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>927344506000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.3010687942194792</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>279194492247.4786</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>41456</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>921661484000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.3127932436659368</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>288289485142.3209</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>41487</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>928358847000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.3100582909587002</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>287845357497.2095</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>41518</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>931041815000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.3202664616961312</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>298181467781.194</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>41548</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>935095233000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.3249285157265402</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>303839106121.6533</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>41579</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>934713236000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.3235827077400984</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>302457039865.3896</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>41609</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>960344913000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.3315100281783524</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>318363969169.5674</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>41640</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>947443323000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.317450239674931</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>300766109964.7631</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>41671</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>954284053000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.3321817698644698</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>316995765678.9796</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>41699</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>964623741000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.3308738378056447</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>319168759223.1082</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>41730</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>969753516000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.3299894403379092</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>320008420010.5596</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>41760</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>975000902000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.3296196189597205</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>321379425802.6238</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>41791</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>980089488000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.3294458720432233</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>322886436054.5562</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>41821</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>985769156000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.3205744694492531</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>316012424184.1379</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>41852</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>1003128364000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.3123243175713661</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>313301381722.7809</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>41883</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1003354341000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.3022700480609377</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>303283964876.2205</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>41913</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>1011930555000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.2966566792251328</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>300195958052.7456</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>41944</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>1017658848000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.2979560216911984</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>303217581788.928</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>41974</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>1044552907000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.2825257804774686</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>295113125300.1837</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>42005</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>1032424444000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.2699492495410863</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>278702203865.6733</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>42036</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>1038760559000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.2701972439881113</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>280670240205.3499</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>42064</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>1050848922000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.2637339451960862</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>277144532004.1143</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>42095</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>1043441637000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.2777854940415012</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>289852950637.5177</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>42125</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>1052740961000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.2674368848951648</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>281541763211.3821</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>42156</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>1065897275000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.2659715942337358</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>283498397521.1448</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>42186</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>1074074485000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.2670940170940171</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>286878868856.8376</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>42217</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>1083208702000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.2651816494298594</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>287247070273.1371</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>42248</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>1094310501000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.2633103375638527</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>288143267417.9788</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>42278</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>1107298067000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.2580245639384869</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>285710100887.6045</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>42309</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>1118293720000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.2475186257765897</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>276798524788.9904</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>42339</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>1145258817000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.2552583214212783</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>292336843220.3389</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>42370</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1140951337000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.2452483139178418</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>279816391661.5573</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>42401</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1150393358000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.2501125506477915</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>287727817017.6579</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>42430</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>1154736097000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.2684779982280452</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>310021235804.2259</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>42461</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>1169793673000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.2619995808006707</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>306485451949.2769</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>42491</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>1180640185000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.2539037704709915</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>299768994541.0689</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>42522</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1192033525000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.2540263171264543</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>302807886247.0152</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>42552</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1194740021000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.2566405748748877</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>306618765815.4755</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>42583</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>1195282172000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.2559050080610077</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>305878693860.8389</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>42614</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1200629672000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.2617732520091097</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>314292733698.0707</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>42644</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1208958246000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.2549394518801785</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>308211152581.262</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>42675</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>1231173086000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.2378913312398896</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>292885404415.2631</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>42705</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1256211860000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.2388630120625821</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>300062548668.3387</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>42736</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1238924191000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.25002500250025</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>309762023952.3952</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>42767</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1244740997000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.245664029872746</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>305788089470.8397</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>42795</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>1243238909000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.2524551261013355</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>313862035545.6818</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>42826</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1246275189000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.2579646588417387</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>321494953953.3084</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>42856</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1250680325000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.2689618074233459</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>336385240720.8177</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>42887</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1249015235000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.2702483582412237</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>337544316677.0262</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>42917</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1252247803000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.278249255683241</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>348437019115.7239</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>42948</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1259261618000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.2807253944191792</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>353506714389.9837</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>42979</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1266349040000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.2739951228868126</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>346973460832.3972</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>43009</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1277419021000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.2748158733648456</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>351055023908.981</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>43040</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1284960218000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.2834065466912286</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>364166138018.9882</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>43070</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1312847319000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.2875959851600471</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>377569618072.5317</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>43101</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1296258294000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.2991683120923831</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>387799405851.7322</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>43132</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1303824041000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.2920987293705272</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>380845345698.8462</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>43160</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1310701665000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.2927400468384075</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>383694866803.2787</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>43191</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1313095269000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.2850708401037658</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>374325171470.1104</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>43221</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1331452952000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.2708999295660183</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>360690510917.2672</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>43252</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1339105636000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.2674583433630212</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>358154974992.6449</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>43282</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1343164219000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.2733734281027884</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>367185407053.0345</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>43313</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1352880016000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.2700367249945993</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>365327288831.2811</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>43344</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1359313764000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.2712085050987199</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>368657453894.5541</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>43374</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1380484551000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.2606542421477909</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>359829154437.6384</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>43405</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1395254167000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.2639009843506716</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>368208948090.6763</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>43435</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1428233205000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.2674368848951648</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>381962239249.0372</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>43466</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1410808436000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.2686727565824825</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>379045791509.9409</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>43497</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1430989398000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.2642566460546483</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>378148458855.2402</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>43525</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1442834344000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.2607765926930399</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>376257424048.8174</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>43556</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1453094839000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.2618212284652039</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>380451075823.4277</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>43586</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1467430917000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.2609875769913352</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>382981239430.0032</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>43617</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1465475351000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.2679456606200263</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>392667761046.0599</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>43647</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1476692523000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.2581777812201482</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>381249199132.5226</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>43678</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1488482189000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.2511426992817319</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>373821434778.241</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>43709</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1495863785000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.2495508085446197</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>373294017019.3651</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>43739</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1511907370000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.2618143736091111</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>395839081031.5486</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>43770</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1530381437000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.2555322737261716</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>391061848264.9359</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>43800</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1552647893000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.2636783124588002</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>409399576268.9518</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>43831</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1546994528000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.2583779035216908</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>399709202904.1676</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>43862</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1569329130000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.2548387507804437</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>399925875052.5605</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>43891</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1617386266000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.2423972114624793</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>392049920736.1118</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>43922</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1666812290000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.2412166970197677</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>402062955145.7552</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>43952</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1712512395000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.2497845608162959</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>427759156477.5381</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>43983</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1739330112000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.252876469844481</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>439835658616.7657</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>44013</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1733221147000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.2669157880688642</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>462624088349.1258</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>44044</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1736424185000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.2716948323642884</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>471777477856.8712</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>44075</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1754840992000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.2591653837980168</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>454794039196.1726</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>44105</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1775038742000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.2529692262936214</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>449030177204.9431</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>44136</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>1783814551000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.2665792286796597</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>475527907113.1335</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>44166</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1814748873000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.2683339147234819</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>486958669332.1169</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>44197</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1812420636000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.2686799752814423</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>486961131680.0559</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>44228</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1829434603000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.2674440373351876</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>489271376267.0162</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>44256</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1856144729000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.2534385272180306</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>470418586421.2706</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>44287</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1854364107000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.2639915522703274</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>489536459081.3094</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>44317</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1866430196000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.2732195647065895</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>509945245706.3545</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>44348</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1869644469000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.2626533238778136</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>491068334252.6199</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>44378</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1887486247000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.2601389141801722</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>491008622824.5883</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>44409</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1895077418000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.2612739718869206</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>495134404034.0701</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>44440</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1907960184000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.2515976450460424</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>480038289136.0137</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>44470</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1930050857000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.2509410288582183</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>484328947804.2661</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>44501</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1963239881000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.2437716347325825</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>478582195163.5708</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>44531</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1974496760000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.2480466327669602</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>489767272727.2727</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>44562</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1952015699000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.2452543287389022</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>478740299946.0441</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>44593</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1975493300000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.239051443870721</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>472244525721.9354</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>44621</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1999267697000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.2383989129009572</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>476623245562.8002</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>44652</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>2002569608000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.2258049948064851</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>452190219934.0649</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>44682</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>2005087708000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.234439104442621</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>470070966592.4276</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>44713</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1989231244000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.2231838968354755</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>443964380742.8006</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>44743</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>2002463392000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.2160340469658018</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>432600270474.6268</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>44774</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>2033757005000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.213031113194082</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>433253518741.4122</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>44805</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>2052450999000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.201995717690785</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>414586312568.1736</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>44835</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>2057872208000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.2096655833944858</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>431464977041.6186</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>44866</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>2068678071000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.2230450104831155</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>461408322032.3862</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>44896</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>2078248384000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.2284983091125126</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>474876241659.8117</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>44927</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>2082183969000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.2308455873865971</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>480662981370.7611</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>44958</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>2118202312000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.2250528874285457</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>476707546473.4213</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>44986</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>2121975673000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.2319647413593134</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>492223538158.2</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>45017</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>2135028349000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.240610187435336</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>513709571232.6459</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>45047</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>2140971740000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.2359826316783085</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>505232145554.0873</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>45078</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>2139841737000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.2462544695186218</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>526945591798.7412</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>45108</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>2158437380000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.2498513384536201</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>539288468361.3251</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>45139</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>2182060980000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.2427255162771731</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>529641877918.7744</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>45170</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>2225679570000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.2288434253283903</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>509332136482.2189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5247,6 +5247,20 @@
         <v>509332136482.2189</v>
       </c>
     </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B366">
+        <v>2230677980000</v>
+      </c>
+      <c r="C366">
+        <v>0.237925291458482</v>
+      </c>
+      <c r="D366">
+        <v>530734708541.5179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Poland_M2 (PLN)</t>
-  </si>
-  <si>
-    <t>Poland_FX (USD)</t>
-  </si>
-  <si>
-    <t>Poland_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,4883 +426,4993 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Poland_M2 (PLN)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poland_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Poland_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>0.5622399703389179</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>0.5457025980431389</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>0.508259219948044</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>0.502765218758476</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>0.4895960784372477</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>0.4781943130253565</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>0.4662004705473237</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>0.4616805405285593</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>0.4580851849621316</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="C11">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
         <v>0.4513653558276494</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="C12">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
         <v>0.449842544987797</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="C13">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
         <v>0.4455335422778718</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="C14">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>0.4452359651550319</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="C15">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
         <v>0.4384042279002292</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="C16">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>0.433463387376277</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="C17">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
         <v>0.43205874319063</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="C18">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>0.4332755463627386</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="C19">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>0.414130114538492</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="C20">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>0.4103405759484517</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="C21">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>0.4119464452648962</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="C22">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>0.4143703573634383</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="C23">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>0.4248088197821607</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="C24">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>0.4222081503998655</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="C25">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>0.4278074683290922</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="C26">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>0.4271678623778603</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="C27">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>0.4221190446959737</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="C28">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>0.4043181207643077</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="C29">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>0.4111842240521126</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="C30">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
         <v>0.4076640731608296</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="C31">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
         <v>0.396589314445836</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="C32">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
         <v>0.405597222197661</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="C33">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
         <v>0.3921568704344484</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="C34">
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
         <v>0.3907776444644185</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="C35">
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
         <v>0.3864883726750927</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="C36">
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
         <v>0.3757985705531809</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="C37">
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
         <v>0.3731343186121633</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="C38">
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
         <v>0.367579490415657</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="C39">
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
         <v>0.3693990001277788</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="C40">
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
         <v>0.3649501962868208</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="C41">
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
         <v>0.3561887940091781</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="C42">
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
         <v>0.3552145382319876</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="C43">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>0.3506557311263865</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>140038726000</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.3485049114901728</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>48804183809.82655</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>138755527000</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.3331667621683638</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>46228729663.55498</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>141142528000</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.3269362715680185</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>46144611864.00466</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>144080767000</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.3252561307463033</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>46863152789.37967</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>147471792000</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.3161555375349007</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>46624023670.99506</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>151110561000</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.3118957137506973</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>47130736278.36328</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>154073607000</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.3042750665101175</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>46880757017.37872</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>160056307000</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.2885586395535891</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>46185630199.8916</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>162082221000</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.2877863383053709</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>46645048885.9919</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>164710229000</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.2926971970312461</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>48210222350.67466</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>169848847000</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.2869440541447361</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>48737116749.989</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>173093794000</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.28316578555385</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>49014240152.50629</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>179378106000</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.2836879352145266</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>50887404513.83249</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>177942578000</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.2819681399856321</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>50174137742.90826</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>180545239000</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.287315042593392</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>51873363033.31915</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>182904341000</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.2897710825254771</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>53000388890.17901</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>185780882000</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.2944207176840045</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>54697740610.40735</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>190926763000</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.286450878598411</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>54691139009.30058</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>195272472000</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.2867794674126167</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>56000135520.50511</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>199468249000</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.2912479934287462</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>58094727273.99552</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>204921487000</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.2699055388913477</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>55309444379.15129</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>206446635000</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.2799160259759721</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>57787721645.31203</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>207413340000</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.2919281924840915</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>60549801443.28831</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>210561453000</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.2870264089009162</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>60436697707.54906</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>223678101000</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.2849002857119666</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>63725954882.41013</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>226255598000</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.2725538360670061</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>61666831166.53442</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>233296783000</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.2534854290859265</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>59137335143.12129</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>236660450000</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.2503128980061123</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>59239163082.93065</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>236676311000</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.2528445057465387</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>59842304876.70907</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>239913167000</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.2520161328429859</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>60461988565.45346</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>242376978000</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.2551020408163265</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>61830861734.69388</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>244091159000</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.2592285358772294</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>63275393768.146</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>247353256000</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.2525890376357666</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>62478720889.11342</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>252022439000</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.2447980416156671</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>61694599510.40392</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>256819715000</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.2378404090855036</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>61082106076.82245</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>261352729000</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.2366863905325444</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>61858634082.84024</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>268700545000</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.2421307506053269</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>65060664648.91042</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>260852624000</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.23767082590612</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>61997058585.85859</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>264431926000</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.2398139044101777</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>63414452624.76318</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>269598133000</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.2429366178364065</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>65495258606.02969</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>272969659000</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.2236936292054403</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>61061573684.68147</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>276690830000</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.228310502283105</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>63171422374.42923</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>291693383000</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.2304147465437788</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>67210456912.4424</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>284257695000</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.2307869836141241</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>65602975998.15369</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>284914891000</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.2285191956124314</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>65108521709.32358</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>288852124000</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.221606648199446</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>64011551024.93075</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>295448056000</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.2159127712404189</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>63791008528.55447</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>298749981000</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.2237386732296678</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>66841924376.32845</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>300424137000</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.2428658166363085</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>72962753369.76321</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>298976518000</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.2455192732629511</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>73404497422.04762</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>303598941000</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.2482621648460775</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>75372130337.63655</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>309065800000</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.2447381302006852</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>75640186000.97894</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>310319035000</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.2534854245880862</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>78661352344.74019</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>312736603000</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.2520161290322581</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>78814668094.75806</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>314724897000</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.2496878901373283</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>78582995505.61798</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>320801266000</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.2350176263219741</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>75393952056.40424</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>324636133000</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>0.2365464222353637</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>76791515789.47368</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>326867489000</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.2368265245707519</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>77410891415.03848</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>330919544000</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>0.244552591034702</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>80927231909.22208</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>322359738000</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>0.2461296118536021</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>79342277191.16887</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>329469146000</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>0.2526847757422615</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>83251837271.00441</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>323454189000</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.2400729821865847</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>77652611753.97321</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>326183539000</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>0.237129781129212</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>77347831211.02179</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>320959393000</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>0.2431315341599805</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>78035349623.1461</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>319709617000</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>0.2505826045555918</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>80113668529.3307</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>324489529000</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.2487438435898711</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>80714772648.12695</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>324586696000</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>0.2471271469170888</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>80214184109.72446</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>327167081000</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.239693192713327</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>78419722195.58965</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>326017515000</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.2399520095980804</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>78228557888.4223</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>324017337000</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>0.2411091018685955</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>78123529113.92406</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>324620533000</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>0.2482621648460775</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>80590996276.06754</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>321562565000</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>0.2492522432701895</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>80150190677.96611</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>324346430000</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>0.2626050420168067</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>85175007878.15126</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>319758534000</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>0.2617801047120419</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>83706422513.089</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>323056954000</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.2547770700636943</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>82307504203.82166</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>322637850000</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.2442002442002442</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>78788241758.24176</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>321984990000</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>0.2635046113306983</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>84844529644.26878</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>325064664000</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>0.2686366689053056</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>87324288515.78241</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>327733066000</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>0.2578648788035069</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>84510847343.99174</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>327958022000</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>0.2588125679382991</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>84879657849.78519</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>329714070000</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>0.2524933720489837</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>83250617346.29466</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>331850367000</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>0.2533826584908529</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>84085128211.6252</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>337353334000</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>0.2484472049689441</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>83814492919.25465</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>339297820000</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>0.2561803509670808</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>86921434609.96541</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>342860220000</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>0.2679600203649615</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>91872831533.53519</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>336935975000</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>0.2597605008182456</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>87522657609.68387</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>340271244000</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>0.2557544757033248</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>87025893606.13811</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>342096455000</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>0.2590673575129534</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>88626024611.39897</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>350781270000</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>0.2504696305572949</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>87860055103.31873</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>346624725000</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>0.2621231979030144</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>90858381389.25294</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>350294502000</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>0.2711202689513068</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>94971939594.40408</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>349192627000</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>0.274649821477616</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>95905692666.84976</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>353147170000</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>0.2739650968466617</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>96749998630.1745</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>352678316000</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>0.2852741484566669</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>100610006276.0313</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>372303238000</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>0.295185524101898</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>109898526433.8637</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>359231343000</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>0.3175107159866645</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>114059800920.7811</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>368714137000</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>0.3323805092069401</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>122553392607.8575</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>366416955000</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>0.321078824851501</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>117648725317.0653</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>371693577000</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>0.3404255319148936</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>126533983659.5745</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>380308273000</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>0.3165358318561661</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>120381195555.8369</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>385623925000</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>0.3004627125773692</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>115865610540.232</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>392122961000</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>0.2950287653046172</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>115687553031.4206</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>390159927000</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>0.2994818963193675</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>116845834805.786</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>391150422000</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>0.298569850416505</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>116785722986.8928</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>397421797000</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>0.3074936195073952</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>122204666830.6633</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>401581220000</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>0.3065791894046232</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>123116444907.7197</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>407006481000</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>0.3028375882014476</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>123256861088.3983</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>408782113000</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>0.3014681498899641</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>123234787314.2202</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>415163519000</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>0.3085943527233452</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>128117117420.1512</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>410120206000</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>0.3183395409543819</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>130557478114.1566</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>417061959000</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>0.315746266300401</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>131685756370.1809</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>421150531000</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>0.3093006711824565</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>130262141907.1479</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>425273793000</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>0.3267867063167871</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>138973822097.3171</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>433601452000</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>0.3256162287128391</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>141187669564.6511</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>440505178000</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>0.3147425406017877</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>138645718871.9627</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>442798058000</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>0.3243278305711413</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>143611733532.2544</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>449012041000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.3250024375182813</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>145930007800.0585</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>454205828000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.3194990255279721</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>145118319435.1257</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>459026730000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.3305785123966942</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>151744373553.719</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>466057044000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.3474514436607484</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>161932192766.0609</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>481210466000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.3450774698919908</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>166054890092.8259</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>488060833000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.3342581141157202</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>163138293612.3275</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>495376461000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.3391670058336725</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>168015351037.851</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>497294745000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.3456499948152501</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>171889926030.9011</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>502083302000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.360386334150209</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>180943960645.8123</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>504800537000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.3531073446327684</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>178248777189.2655</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>506806993000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.3603214066947718</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>182613408640.5074</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>511540906000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.3611020835590221</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>184718486982.2699</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>521751550000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.3573853686430078</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>186466370036.8107</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>523462956000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.3791037986200622</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>198446795056.4865</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>527874019000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.3999680025597952</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>211132716982.6414</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>536088887000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.405926527298559</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>217612700223.2596</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>549344290999.9999</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.4056795131845842</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>222857724543.6105</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>556007732000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.4137702747434625</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>230059472029.1294</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>565581997000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.4315180806075775</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>244058857771.6406</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>570176454000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.4491152429713465</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>256074936674.7508</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>581982673000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.4536587578823209</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>264021536542.213</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>589308477000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.4617657923900997</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>272122495844.1079</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>595558242000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.4708097928436911</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>280394652542.3729</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>605561126000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.4854133294500267</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>293947442357.1672</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>614791029000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.4407227853680035</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>270952414720.141</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>619703100000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.4161984434178216</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>257919465601.1987</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>627470869000</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>0.3608154429009561</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>226401179505.6828</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>639993542000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.3358973497699103</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>214972134627.6578</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>660239876000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.3372795035245708</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>222685377584.4042</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>663027986000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.2873728375193977</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>190536233691.5915</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>674154748000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.2732987154960372</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>184245626673.9547</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>678861293000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.2862049227246709</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>194293443903.8351</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>675202149000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.2988375220392673</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>201775737082.7481</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>680445217000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.3150896430034344</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>214401240507.9245</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>687454585000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.3151293606025273</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>216637123814.3258</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>682404833000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.3443526170798898</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>234987890151.5152</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>678889774000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.3505082369435681</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>237956457763.7574</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>685513764000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.3485535029627048</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>238938223771.3489</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>698940699000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.3456977909911156</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>241622255678.0862</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>694897356000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.3610499332057624</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>250892643968.6609</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>714757821000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.3493938017539569</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>249731952412.5642</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>705346047000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.3427122245450495</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>241730712841.4271</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>711014143000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.3463563313937379</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>246264250138.5425</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>712761519000</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.3506926179203927</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>249960203051.0258</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>713066938000</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.3424657534246575</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>244201006164.3835</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>730147686000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.3024620410138528</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>220841959349.1017</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>736375596000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.2950461747263447</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>217264802761.6322</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>734376016000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.3259452411994785</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>239366367666.2321</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>739043378000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.3176317377632373</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>234743632436.5531</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>744491803000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.3440801018477102</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>256164815401.0254</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>748187115000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.3521126760563381</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>263446167253.5211</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>754637689000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.3229244033971648</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>243690925501.3402</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>774657904000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.3385813441679363</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>262284714406.6362</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>761148796000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.3485656523406184</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>265310326606.0163</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>768891436000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.3492595697122101</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>268542692092.7633</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>792669573000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.3525471531817381</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>279453401374.9339</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>779152287000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.3769204094863329</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>293678399068.2527</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>783468524000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.3648995796356843</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>285887335065.3901</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>788125220000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.364590928977687</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>287343306110.5439</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>787548051000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.3605058618253132</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>283915688854.6008</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>800229722000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.3480318797201823</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>278505454355.619</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>814265155000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.3031037827352085</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>246806848629.9709</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>817584867000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.3154275620603728</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>257888801375.2642</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>836794031000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.2988553838797406</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>250080401362.7805</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>863745521000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.2903010421807414</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>250746224925.2475</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>855202858000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.3104144032283098</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>265467284805.215</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>860213872000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.3226951498918971</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>277586844364.1292</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>859994951000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.3213883978788366</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>276392399485.7786</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>854927240000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.317450239674931</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>271396857242.6272</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>867102006000</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>0.2817298211015636</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>244288493027.1869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>868777851000</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>0.299895036737142</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>260542165542.0603</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>869059232000</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.2994549919147153</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>260244125291.9687</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>872955403000</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.3017501508750755</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>263414424562.4623</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>874563200000</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>0.3140506249607437</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>274657119527.6678</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>879012171000</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.3135307322823783</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>275597329658.7532</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>882074719000</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>0.3166861956487316</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>279340887038.034</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>900336731000</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>0.3235512990584657</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>291305118905.1024</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>895716818000</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>0.3238866396761134</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>290110710283.4008</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>904415031000</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>0.3148713750432948</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>284774404420.7941</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>915839384000</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>0.3071724773460298</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>281320652434.3419</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>914731599000</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>0.3166761669516752</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>289673696560.8969</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>920112136000</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>0.3037205770690964</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>279456988914.199</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>927344506000</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>0.3010687942194792</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>279194492247.4786</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>921661484000</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>0.3127932436659368</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>288289485142.3209</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>928358847000</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>0.3100582909587002</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>287845357497.2095</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>931041815000</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>0.3202664616961312</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>298181467781.194</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>935095233000</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>0.3249285157265402</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>303839106121.6533</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>934713236000</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>0.3235827077400984</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>302457039865.3896</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>960344913000</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>0.3315100281783524</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>318363969169.5674</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>947443323000</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>0.317450239674931</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>300766109964.7631</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>954284053000</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>0.3321817698644698</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>316995765678.9796</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>964623741000</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>0.3308738378056447</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>319168759223.1082</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>969753516000</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>0.3299894403379092</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>320008420010.5596</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>975000902000</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>0.3296196189597205</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>321379425802.6238</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>980089488000</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>0.3294458720432233</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>322886436054.5562</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>985769156000</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>0.3205744694492531</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>316012424184.1379</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>1003128364000</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>0.3123243175713661</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>313301381722.7809</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>1003354341000</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>0.3022700480609377</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>303283964876.2205</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>1011930555000</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>0.2966566792251328</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>300195958052.7456</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>1017658848000</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>0.2979560216911984</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>303217581788.928</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>1044552907000</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>0.2825257804774686</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>295113125300.1837</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>1032424444000</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>0.2699492495410863</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>278702203865.6733</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>1038760559000</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>0.2701972439881113</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>280670240205.3499</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>1050848922000</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>0.2637339451960862</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="n">
         <v>277144532004.1143</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>1043441637000</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>0.2777854940415012</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>289852950637.5177</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>1052740961000</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>0.2674368848951648</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>281541763211.3821</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>1065897275000</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>0.2659715942337358</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>283498397521.1448</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>1074074485000</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>0.2670940170940171</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>286878868856.8376</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>1083208702000</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>0.2651816494298594</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>287247070273.1371</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>1094310501000</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>0.2633103375638527</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>288143267417.9788</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>1107298067000</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>0.2580245639384869</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>285710100887.6045</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>1118293720000</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>0.2475186257765897</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>276798524788.9904</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>1145258817000</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>0.2552583214212783</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>292336843220.3389</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>1140951337000</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>0.2452483139178418</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>279816391661.5573</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>1150393358000</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>0.2501125506477915</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>287727817017.6579</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>1154736097000</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>0.2684779982280452</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>310021235804.2259</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>1169793673000</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>0.2619995808006707</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>306485451949.2769</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>1180640185000</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>0.2539037704709915</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>299768994541.0689</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>1192033525000</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>0.2540263171264543</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>302807886247.0152</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>1194740021000</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>0.2566405748748877</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>306618765815.4755</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>1195282172000</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>0.2559050080610077</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>305878693860.8389</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>1200629672000</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>0.2617732520091097</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>314292733698.0707</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>1208958246000</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>0.2549394518801785</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>308211152581.262</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>1231173086000</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>0.2378913312398896</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>292885404415.2631</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>1256211860000</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>0.2388630120625821</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>300062548668.3387</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>1238924191000</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>0.25002500250025</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>309762023952.3952</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>1244740997000</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>0.245664029872746</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>305788089470.8397</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>1243238909000</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>0.2524551261013355</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>313862035545.6818</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>1246275189000</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>0.2579646588417387</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>321494953953.3084</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>1250680325000</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>0.2689618074233459</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>336385240720.8177</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>1249015235000</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>0.2702483582412237</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>337544316677.0262</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>1252247803000</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>0.278249255683241</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>348437019115.7239</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="n">
         <v>1259261618000</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>0.2807253944191792</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>353506714389.9837</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="n">
         <v>1266349040000</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>0.2739951228868126</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>346973460832.3972</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="n">
         <v>1277419021000</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>0.2748158733648456</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>351055023908.981</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="n">
         <v>1284960218000</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>0.2834065466912286</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>364166138018.9882</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="n">
         <v>1312847319000</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>0.2875959851600471</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>377569618072.5317</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="n">
         <v>1296258294000</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>0.2991683120923831</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="n">
         <v>387799405851.7322</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="n">
         <v>1303824041000</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>0.2920987293705272</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>380845345698.8462</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="n">
         <v>1310701665000</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>0.2927400468384075</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>383694866803.2787</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="n">
         <v>1313095269000</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>0.2850708401037658</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>374325171470.1104</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="n">
         <v>1331452952000</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>0.2708999295660183</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>360690510917.2672</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="n">
         <v>1339105636000</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>0.2674583433630212</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>358154974992.6449</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="n">
         <v>1343164219000</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>0.2733734281027884</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>367185407053.0345</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="n">
         <v>1352880016000</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>0.2700367249945993</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>365327288831.2811</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="n">
         <v>1359313764000</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>0.2712085050987199</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>368657453894.5541</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="n">
         <v>1380484551000</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>0.2606542421477909</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>359829154437.6384</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="n">
         <v>1395254167000</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>0.2639009843506716</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>368208948090.6763</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="n">
         <v>1428233205000</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>0.2674368848951648</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>381962239249.0372</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="n">
         <v>1410808436000</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>0.2686727565824825</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>379045791509.9409</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="n">
         <v>1430989398000</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>0.2642566460546483</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>378148458855.2402</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="n">
         <v>1442834344000</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>0.2607765926930399</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>376257424048.8174</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="n">
         <v>1453094839000</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>0.2618212284652039</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>380451075823.4277</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="n">
         <v>1467430917000</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>0.2609875769913352</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>382981239430.0032</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="n">
         <v>1465475351000</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>0.2679456606200263</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>392667761046.0599</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="n">
         <v>1476692523000</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>0.2581777812201482</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>381249199132.5226</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="n">
         <v>1488482189000</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>0.2511426992817319</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>373821434778.241</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="n">
         <v>1495863785000</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>0.2495508085446197</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>373294017019.3651</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="n">
         <v>1511907370000</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>0.2618143736091111</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>395839081031.5486</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="n">
         <v>1530381437000</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>0.2555322737261716</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>391061848264.9359</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="n">
         <v>1552647893000</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>0.2636783124588002</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>409399576268.9518</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="n">
         <v>1546994528000</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>0.2583779035216908</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>399709202904.1676</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="n">
         <v>1569329130000</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>0.2548387507804437</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>399925875052.5605</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="n">
         <v>1617386266000</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>0.2423972114624793</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>392049920736.1118</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="n">
         <v>1666812290000</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>0.2412166970197677</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>402062955145.7552</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="n">
         <v>1712512395000</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>0.2497845608162959</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>427759156477.5381</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="n">
         <v>1739330112000</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>0.252876469844481</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>439835658616.7657</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="n">
         <v>1733221147000</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>0.2669157880688642</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>462624088349.1258</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="n">
         <v>1736424185000</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>0.2716948323642884</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>471777477856.8712</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="n">
         <v>1754840992000</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>0.2591653837980168</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>454794039196.1726</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="n">
         <v>1775038742000</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>0.2529692262936214</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>449030177204.9431</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="n">
         <v>1783814551000</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>0.2665792286796597</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>475527907113.1335</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="n">
         <v>1814748873000</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>0.2683339147234819</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>486958669332.1169</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="n">
         <v>1812420636000</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>0.2686799752814423</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>486961131680.0559</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="n">
         <v>1829434603000</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>0.2674440373351876</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>489271376267.0162</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="n">
         <v>1856144729000</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>0.2534385272180306</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="n">
         <v>470418586421.2706</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="n">
         <v>1854364107000</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>0.2639915522703274</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="n">
         <v>489536459081.3094</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="n">
         <v>1866430196000</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>0.2732195647065895</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>509945245706.3545</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="n">
         <v>1869644469000</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>0.2626533238778136</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="n">
         <v>491068334252.6199</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="n">
         <v>1887486247000</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>0.2601389141801722</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>491008622824.5883</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="n">
         <v>1895077418000</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>0.2612739718869206</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="n">
         <v>495134404034.0701</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="n">
         <v>1907960184000</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>0.2515976450460424</v>
       </c>
-      <c r="D341">
+      <c r="D341" t="n">
         <v>480038289136.0137</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="n">
         <v>1930050857000</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>0.2509410288582183</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="n">
         <v>484328947804.2661</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="n">
         <v>1963239881000</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>0.2437716347325825</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="n">
         <v>478582195163.5708</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="n">
         <v>1974496760000</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>0.2480466327669602</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="n">
         <v>489767272727.2727</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="n">
         <v>1952015699000</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>0.2452543287389022</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>478740299946.0441</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="n">
         <v>1975493300000</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>0.239051443870721</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="n">
         <v>472244525721.9354</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B347">
+      <c r="B347" t="n">
         <v>1999267697000</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>0.2383989129009572</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="n">
         <v>476623245562.8002</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="n">
         <v>2002569608000</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>0.2258049948064851</v>
       </c>
-      <c r="D348">
+      <c r="D348" t="n">
         <v>452190219934.0649</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="n">
         <v>2005087708000</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>0.234439104442621</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="n">
         <v>470070966592.4276</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="n">
         <v>1989231244000</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>0.2231838968354755</v>
       </c>
-      <c r="D350">
+      <c r="D350" t="n">
         <v>443964380742.8006</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="n">
         <v>2002463392000</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>0.2160340469658018</v>
       </c>
-      <c r="D351">
+      <c r="D351" t="n">
         <v>432600270474.6268</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="n">
         <v>2033757005000</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>0.213031113194082</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="n">
         <v>433253518741.4122</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="n">
         <v>2052450999000</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>0.201995717690785</v>
       </c>
-      <c r="D353">
+      <c r="D353" t="n">
         <v>414586312568.1736</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="n">
         <v>2057872208000</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>0.2096655833944858</v>
       </c>
-      <c r="D354">
+      <c r="D354" t="n">
         <v>431464977041.6186</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="n">
         <v>2068678071000</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>0.2230450104831155</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="n">
         <v>461408322032.3862</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="n">
         <v>2078248384000</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>0.2284983091125126</v>
       </c>
-      <c r="D356">
+      <c r="D356" t="n">
         <v>474876241659.8117</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="n">
         <v>2082183969000</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>0.2308455873865971</v>
       </c>
-      <c r="D357">
+      <c r="D357" t="n">
         <v>480662981370.7611</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="n">
         <v>2118202312000</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>0.2250528874285457</v>
       </c>
-      <c r="D358">
+      <c r="D358" t="n">
         <v>476707546473.4213</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="n">
         <v>2121975673000</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>0.2319647413593134</v>
       </c>
-      <c r="D359">
+      <c r="D359" t="n">
         <v>492223538158.2</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="n">
         <v>2135028349000</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>0.240610187435336</v>
       </c>
-      <c r="D360">
+      <c r="D360" t="n">
         <v>513709571232.6459</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="n">
         <v>2140971740000</v>
       </c>
-      <c r="C361">
+      <c r="C361" t="n">
         <v>0.2359826316783085</v>
       </c>
-      <c r="D361">
+      <c r="D361" t="n">
         <v>505232145554.0873</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="n">
         <v>2139841737000</v>
       </c>
-      <c r="C362">
+      <c r="C362" t="n">
         <v>0.2462544695186218</v>
       </c>
-      <c r="D362">
+      <c r="D362" t="n">
         <v>526945591798.7412</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="n">
         <v>2158437380000</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="n">
         <v>0.2498513384536201</v>
       </c>
-      <c r="D363">
+      <c r="D363" t="n">
         <v>539288468361.3251</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="n">
         <v>2182060980000</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="n">
         <v>0.2427255162771731</v>
       </c>
-      <c r="D364">
+      <c r="D364" t="n">
         <v>529641877918.7744</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="n">
         <v>2225679570000</v>
       </c>
-      <c r="C365">
+      <c r="C365" t="n">
         <v>0.2288434253283903</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="n">
         <v>509332136482.2189</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="n">
         <v>2230677980000</v>
       </c>
-      <c r="C366">
+      <c r="C366" t="n">
         <v>0.237925291458482</v>
       </c>
-      <c r="D366">
+      <c r="D366" t="n">
         <v>530734708541.5179</v>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2230480530000</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.2501626056937009</v>
+      </c>
+      <c r="D367" t="n">
+        <v>557982821333.8671</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Poland.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Poland.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Poland_M2 (PLN)</t>
+  </si>
+  <si>
+    <t>Poland_FX (USD)</t>
+  </si>
+  <si>
+    <t>Poland_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4993 +385,4911 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Poland_M2 (PLN)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Poland_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Poland_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>34121</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.5622399703389179</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>34151</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.5457025980431389</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>34182</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.508259219948044</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>34213</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.502765218758476</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>34243</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4895960784372477</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>34274</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4781943130253565</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>34304</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.4662004705473237</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>34335</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4616805405285593</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>34366</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.4580851849621316</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>34394</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.4513653558276494</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>34425</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.449842544987797</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>34455</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.4455335422778718</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>34486</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.4452359651550319</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>34516</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.4384042279002292</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>34547</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.433463387376277</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>34578</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.43205874319063</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>34608</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.4332755463627386</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>34639</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.414130114538492</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>34669</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4103405759484517</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>34700</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.4119464452648962</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>34731</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.4143703573634383</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>34759</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.4248088197821607</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>34790</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.4222081503998655</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>34820</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.4278074683290922</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>34851</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.4271678623778603</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>34881</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.4221190446959737</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>34912</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.4043181207643077</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>34943</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.4111842240521126</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>34973</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4076640731608296</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>35004</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.396589314445836</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>35034</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.405597222197661</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>35065</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.3921568704344484</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>35096</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.3907776444644185</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>35125</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.3864883726750927</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>35156</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.3757985705531809</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>35186</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.3731343186121633</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>35217</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.367579490415657</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>35247</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.3693990001277788</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>35278</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.3649501962868208</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>35309</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.3561887940091781</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>35339</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.3552145382319876</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>35370</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.3506557311263865</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>35400</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>140038726000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.3485049114901728</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>48804183809.82655</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>35431</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>138755527000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.3331667621683638</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>46228729663.55498</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>35462</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>141142528000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.3269362715680185</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>46144611864.00466</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>35490</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>144080767000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3252561307463033</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>46863152789.37967</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>35521</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>147471792000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.3161555375349007</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>46624023670.99506</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>35551</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>151110561000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.3118957137506973</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>47130736278.36328</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>35582</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>154073607000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.3042750665101175</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>46880757017.37872</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>35612</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>160056307000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.2885586395535891</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>46185630199.8916</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>35643</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>162082221000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.2877863383053709</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>46645048885.9919</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>35674</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>164710229000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.2926971970312461</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>48210222350.67466</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>35704</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>169848847000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.2869440541447361</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>48737116749.989</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>35735</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>173093794000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.28316578555385</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>49014240152.50629</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>35765</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>179378106000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.2836879352145266</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>50887404513.83249</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>35796</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>177942578000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.2819681399856321</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>50174137742.90826</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>35827</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>180545239000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.287315042593392</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>51873363033.31915</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>35855</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>182904341000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.2897710825254771</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>53000388890.17901</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>35886</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>185780882000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.2944207176840045</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>54697740610.40735</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>35916</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>190926763000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.286450878598411</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>54691139009.30058</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>35947</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>195272472000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.2867794674126167</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>56000135520.50511</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>35977</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>199468249000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.2912479934287462</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>58094727273.99552</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>36008</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>204921487000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.2699055388913477</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>55309444379.15129</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>36039</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>206446635000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.2799160259759721</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>57787721645.31203</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>36069</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>207413340000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.2919281924840915</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>60549801443.28831</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>36100</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>210561453000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.2870264089009162</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>60436697707.54906</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>36130</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>223678101000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.2849002857119666</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>63725954882.41013</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>36161</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>226255598000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.2725538360670061</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>61666831166.53442</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>36192</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>233296783000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.2534854290859265</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>59137335143.12129</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>36220</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>236660450000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.2503128980061123</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>59239163082.93065</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>36251</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>236676311000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.2528445057465387</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>59842304876.70907</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>36281</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>239913167000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.2520161328429859</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>60461988565.45346</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>36312</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>242376978000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.2551020408163265</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>61830861734.69388</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>36342</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>244091159000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.2592285358772294</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>63275393768.146</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>36373</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>247353256000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.2525890376357666</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>62478720889.11342</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>36404</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>252022439000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.2447980416156671</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>61694599510.40392</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>36434</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>256819715000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.2378404090855036</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>61082106076.82245</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>36465</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>261352729000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.2366863905325444</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>61858634082.84024</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>36495</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>268700545000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.2421307506053269</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>65060664648.91042</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>36526</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>260852624000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.23767082590612</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>61997058585.85859</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>36557</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>264431926000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.2398139044101777</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>63414452624.76318</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>36586</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>269598133000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.2429366178364065</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>65495258606.02969</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>36617</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>272969659000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.2236936292054403</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>61061573684.68147</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>36647</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>276690830000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.228310502283105</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>63171422374.42923</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>36678</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>291693383000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.2304147465437788</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>67210456912.4424</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>36708</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>284257695000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.2307869836141241</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>65602975998.15369</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>36739</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>284914891000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.2285191956124314</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>65108521709.32358</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>36770</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>288852124000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.221606648199446</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>64011551024.93075</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>36800</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>295448056000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.2159127712404189</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>63791008528.55447</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>36831</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>298749981000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.2237386732296678</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>66841924376.32845</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>36861</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>300424137000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.2428658166363085</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>72962753369.76321</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>36892</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>298976518000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.2455192732629511</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>73404497422.04762</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>36923</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>303598941000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.2482621648460775</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>75372130337.63655</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>36951</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>309065800000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.2447381302006852</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>75640186000.97894</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>36982</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>310319035000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.2534854245880862</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>78661352344.74019</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>37012</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>312736603000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.2520161290322581</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>78814668094.75806</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>37043</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>314724897000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.2496878901373283</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>78582995505.61798</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>37073</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>320801266000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.2350176263219741</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>75393952056.40424</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>37104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>324636133000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.2365464222353637</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>76791515789.47368</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>37135</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>326867489000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.2368265245707519</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>77410891415.03848</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>37165</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>330919544000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.244552591034702</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>80927231909.22208</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>37196</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>322359738000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.2461296118536021</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>79342277191.16887</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>37226</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>329469146000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.2526847757422615</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>83251837271.00441</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>37257</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>323454189000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.2400729821865847</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>77652611753.97321</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>37288</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>326183539000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.237129781129212</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>77347831211.02179</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>37316</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>320959393000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.2431315341599805</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>78035349623.1461</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>37347</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>319709617000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.2505826045555918</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>80113668529.3307</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>37377</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>324489529000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.2487438435898711</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>80714772648.12695</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>37408</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>324586696000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.2471271469170888</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>80214184109.72446</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>37438</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>327167081000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.239693192713327</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>78419722195.58965</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>37469</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>326017515000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.2399520095980804</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>78228557888.4223</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>37500</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>324017337000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.2411091018685955</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>78123529113.92406</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>37530</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>324620533000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.2482621648460775</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>80590996276.06754</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>37561</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>321562565000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.2492522432701895</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>80150190677.96611</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>37591</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>324346430000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.2626050420168067</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>85175007878.15126</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>37622</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>319758534000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.2617801047120419</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>83706422513.089</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>37653</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>323056954000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.2547770700636943</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>82307504203.82166</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>37681</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>322637850000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.2442002442002442</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>78788241758.24176</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>37712</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>321984990000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.2635046113306983</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>84844529644.26878</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>37742</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>325064664000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.2686366689053056</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>87324288515.78241</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>37773</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>327733066000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.2578648788035069</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>84510847343.99174</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>37803</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>327958022000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.2588125679382991</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>84879657849.78519</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>37834</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>329714070000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.2524933720489837</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>83250617346.29466</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>37865</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>331850367000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.2533826584908529</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>84085128211.6252</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>37895</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>337353334000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.2484472049689441</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>83814492919.25465</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>37926</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>339297820000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.2561803509670808</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>86921434609.96541</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>37956</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>342860220000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.2679600203649615</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>91872831533.53519</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>37987</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>336935975000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.2597605008182456</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>87522657609.68387</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>38018</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>340271244000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.2557544757033248</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>87025893606.13811</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>38047</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>342096455000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.2590673575129534</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>88626024611.39897</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>38078</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>350781270000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.2504696305572949</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>87860055103.31873</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>38108</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>346624725000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.2621231979030144</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>90858381389.25294</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>38139</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>350294502000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.2711202689513068</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>94971939594.40408</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>38169</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>349192627000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.274649821477616</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>95905692666.84976</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>38200</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>353147170000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.2739650968466617</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>96749998630.1745</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>38231</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>352678316000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.2852741484566669</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>100610006276.0313</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>38261</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>372303238000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.295185524101898</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>109898526433.8637</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>38292</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>359231343000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.3175107159866645</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>114059800920.7811</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>38322</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>368714137000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.3323805092069401</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>122553392607.8575</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>38353</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>366416955000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.321078824851501</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>117648725317.0653</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>38384</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>371693577000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.3404255319148936</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>126533983659.5745</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>38412</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>380308273000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.3165358318561661</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>120381195555.8369</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>38443</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>385623925000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.3004627125773692</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>115865610540.232</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>38473</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>392122961000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.2950287653046172</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>115687553031.4206</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>38504</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>390159927000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.2994818963193675</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>116845834805.786</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>38534</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>391150422000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.298569850416505</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>116785722986.8928</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>38565</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>397421797000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.3074936195073952</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>122204666830.6633</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>38596</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>401581220000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.3065791894046232</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>123116444907.7197</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>38626</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>407006481000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.3028375882014476</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>123256861088.3983</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>38657</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>408782113000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.3014681498899641</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>123234787314.2202</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>38687</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>415163519000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.3085943527233452</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>128117117420.1512</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>38718</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>410120206000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.3183395409543819</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>130557478114.1566</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>38749</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>417061959000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.315746266300401</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>131685756370.1809</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>38777</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>421150531000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.3093006711824565</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>130262141907.1479</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>38808</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>425273793000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.3267867063167871</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>138973822097.3171</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>38838</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>433601452000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.3256162287128391</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>141187669564.6511</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>38869</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>440505178000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.3147425406017877</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>138645718871.9627</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>38899</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>442798058000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.3243278305711413</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>143611733532.2544</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>38930</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>449012041000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.3250024375182813</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>145930007800.0585</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>38961</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>454205828000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.3194990255279721</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>145118319435.1257</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>38991</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>459026730000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.3305785123966942</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>151744373553.719</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>39022</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>466057044000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.3474514436607484</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>161932192766.0609</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>39052</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>481210466000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.3450774698919908</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>166054890092.8259</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>39083</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>488060833000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.3342581141157202</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>163138293612.3275</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>39114</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>495376461000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.3391670058336725</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>168015351037.851</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>39142</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>497294745000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.3456499948152501</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>171889926030.9011</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>39173</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>502083302000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.360386334150209</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>180943960645.8123</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>39203</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>504800537000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.3531073446327684</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>178248777189.2655</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>39234</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>506806993000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.3603214066947718</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>182613408640.5074</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>39264</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>511540906000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.3611020835590221</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>184718486982.2699</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>39295</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>521751550000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.3573853686430078</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>186466370036.8107</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>39326</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>523462956000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.3791037986200622</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>198446795056.4865</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>39356</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>527874019000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.3999680025597952</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>211132716982.6414</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>39387</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>536088887000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.405926527298559</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>217612700223.2596</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>39417</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>549344290999.9999</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.4056795131845842</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>222857724543.6105</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>39448</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>556007732000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.4137702747434625</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>230059472029.1294</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>39479</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>565581997000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.4315180806075775</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>244058857771.6406</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>39508</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>570176454000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.4491152429713465</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>256074936674.7508</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>39539</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>581982673000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.4536587578823209</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>264021536542.213</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>39569</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>589308477000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.4617657923900997</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>272122495844.1079</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>39600</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>595558242000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.4708097928436911</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>280394652542.3729</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>39630</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>605561126000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.4854133294500267</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>293947442357.1672</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>39661</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>614791029000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.4407227853680035</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>270952414720.141</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>39692</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>619703100000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.4161984434178216</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>257919465601.1987</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>39722</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>627470869000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.3608154429009561</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>226401179505.6828</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>39753</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>639993542000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.3358973497699103</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>214972134627.6578</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>39783</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>660239876000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.3372795035245708</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>222685377584.4042</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>39814</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>663027986000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.2873728375193977</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>190536233691.5915</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>39845</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>674154748000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.2732987154960372</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>184245626673.9547</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>39873</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>678861293000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.2862049227246709</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>194293443903.8351</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>39904</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>675202149000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.2988375220392673</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>201775737082.7481</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>39934</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>680445217000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.3150896430034344</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>214401240507.9245</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>39965</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>687454585000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.3151293606025273</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>216637123814.3258</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>39995</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>682404833000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.3443526170798898</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>234987890151.5152</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>40026</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>678889774000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.3505082369435681</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>237956457763.7574</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>40057</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>685513764000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.3485535029627048</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>238938223771.3489</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>40087</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>698940699000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.3456977909911156</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>241622255678.0862</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>40118</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>694897356000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.3610499332057624</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>250892643968.6609</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>40148</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>714757821000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.3493938017539569</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>249731952412.5642</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>40179</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>705346047000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.3427122245450495</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>241730712841.4271</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>40210</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>711014143000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.3463563313937379</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>246264250138.5425</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>40238</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>712761519000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.3506926179203927</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>249960203051.0258</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>40269</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>713066938000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.3424657534246575</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>244201006164.3835</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>40299</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>730147686000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.3024620410138528</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>220841959349.1017</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>40330</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>736375596000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.2950461747263447</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>217264802761.6322</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>40360</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>734376016000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.3259452411994785</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>239366367666.2321</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>40391</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>739043378000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.3176317377632373</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>234743632436.5531</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>40422</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>744491803000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.3440801018477102</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>256164815401.0254</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>40452</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>748187115000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.3521126760563381</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>263446167253.5211</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>40483</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>754637689000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.3229244033971648</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>243690925501.3402</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>40513</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>774657904000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.3385813441679363</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>262284714406.6362</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>40544</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>761148796000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.3485656523406184</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>265310326606.0163</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>40575</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>768891436000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.3492595697122101</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>268542692092.7633</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>40603</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>792669573000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.3525471531817381</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>279453401374.9339</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>40634</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>779152287000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.3769204094863329</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>293678399068.2527</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>40664</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>783468524000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.3648995796356843</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>285887335065.3901</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>40695</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>788125220000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.364590928977687</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>287343306110.5439</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>40725</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>787548051000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.3605058618253132</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>283915688854.6008</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>40756</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>800229722000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.3480318797201823</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>278505454355.619</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>40787</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>814265155000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.3031037827352085</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>246806848629.9709</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>40817</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>817584867000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.3154275620603728</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>257888801375.2642</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>40848</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>836794031000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.2988553838797406</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>250080401362.7805</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>40878</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>863745521000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.2903010421807414</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>250746224925.2475</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>40909</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>855202858000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.3104144032283098</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>265467284805.215</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>40940</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>860213872000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.3226951498918971</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>277586844364.1292</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>40969</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>859994951000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.3213883978788366</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>276392399485.7786</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>41000</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>854927240000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.317450239674931</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>271396857242.6272</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>41030</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>867102006000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.2817298211015636</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>244288493027.1869</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>41061</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>868777851000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.299895036737142</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>260542165542.0603</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>41091</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>869059232000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.2994549919147153</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>260244125291.9687</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>41122</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>872955403000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.3017501508750755</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>263414424562.4623</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>41153</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>874563200000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.3140506249607437</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>274657119527.6678</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>41183</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>879012171000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.3135307322823783</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>275597329658.7532</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>41214</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>882074719000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.3166861956487316</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>279340887038.034</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>41244</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>900336731000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.3235512990584657</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>291305118905.1024</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>41275</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>895716818000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.3238866396761134</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>290110710283.4008</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>41306</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>904415031000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.3148713750432948</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>284774404420.7941</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>41334</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>915839384000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.3071724773460298</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>281320652434.3419</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>41365</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>914731599000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.3166761669516752</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>289673696560.8969</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>41395</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>920112136000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.3037205770690964</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>279456988914.199</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>41426</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>927344506000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.3010687942194792</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>279194492247.4786</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>41456</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>921661484000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.3127932436659368</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>288289485142.3209</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>41487</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>928358847000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.3100582909587002</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>287845357497.2095</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>41518</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>931041815000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.3202664616961312</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>298181467781.194</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>41548</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>935095233000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.3249285157265402</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>303839106121.6533</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>41579</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>934713236000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.3235827077400984</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>302457039865.3896</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>41609</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>960344913000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.3315100281783524</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>318363969169.5674</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>41640</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>947443323000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.317450239674931</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>300766109964.7631</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>41671</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>954284053000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.3321817698644698</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>316995765678.9796</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>41699</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>964623741000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.3308738378056447</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>319168759223.1082</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>41730</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>969753516000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.3299894403379092</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>320008420010.5596</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>41760</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>975000902000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.3296196189597205</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>321379425802.6238</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>41791</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>980089488000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.3294458720432233</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>322886436054.5562</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>41821</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>985769156000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.3205744694492531</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>316012424184.1379</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>41852</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>1003128364000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.3123243175713661</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>313301381722.7809</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>41883</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1003354341000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.3022700480609377</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>303283964876.2205</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>41913</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>1011930555000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.2966566792251328</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>300195958052.7456</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>41944</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>1017658848000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.2979560216911984</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>303217581788.928</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>41974</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>1044552907000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.2825257804774686</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>295113125300.1837</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>42005</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>1032424444000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.2699492495410863</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>278702203865.6733</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>42036</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>1038760559000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.2701972439881113</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>280670240205.3499</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>42064</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>1050848922000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.2637339451960862</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>277144532004.1143</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>42095</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>1043441637000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.2777854940415012</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>289852950637.5177</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>42125</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>1052740961000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.2674368848951648</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>281541763211.3821</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>42156</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>1065897275000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.2659715942337358</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>283498397521.1448</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>42186</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>1074074485000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.2670940170940171</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>286878868856.8376</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>42217</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>1083208702000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.2651816494298594</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>287247070273.1371</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>42248</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>1094310501000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.2633103375638527</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>288143267417.9788</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>42278</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>1107298067000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.2580245639384869</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>285710100887.6045</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>42309</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>1118293720000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.2475186257765897</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>276798524788.9904</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>42339</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>1145258817000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.2552583214212783</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>292336843220.3389</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>42370</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1140951337000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.2452483139178418</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>279816391661.5573</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>42401</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1150393358000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.2501125506477915</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>287727817017.6579</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>42430</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>1154736097000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.2684779982280452</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>310021235804.2259</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>42461</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>1169793673000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.2619995808006707</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>306485451949.2769</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>42491</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>1180640185000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.2539037704709915</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>299768994541.0689</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>42522</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1192033525000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.2540263171264543</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>302807886247.0152</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>42552</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1194740021000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.2566405748748877</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>306618765815.4755</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>42583</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>1195282172000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.2559050080610077</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>305878693860.8389</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>42614</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1200629672000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.2617732520091097</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>314292733698.0707</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>42644</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1208958246000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.2549394518801785</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>308211152581.262</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>42675</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>1231173086000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.2378913312398896</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>292885404415.2631</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>42705</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1256211860000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.2388630120625821</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>300062548668.3387</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>42736</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1238924191000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.25002500250025</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>309762023952.3952</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>42767</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1244740997000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.245664029872746</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>305788089470.8397</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>42795</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>1243238909000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.2524551261013355</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>313862035545.6818</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>42826</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1246275189000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.2579646588417387</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>321494953953.3084</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>42856</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1250680325000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.2689618074233459</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>336385240720.8177</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>42887</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1249015235000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.2702483582412237</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>337544316677.0262</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>42917</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1252247803000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.278249255683241</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>348437019115.7239</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>42948</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1259261618000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.2807253944191792</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>353506714389.9837</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>42979</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1266349040000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.2739951228868126</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>346973460832.3972</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>43009</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1277419021000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.2748158733648456</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>351055023908.981</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>43040</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1284960218000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.2834065466912286</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>364166138018.9882</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>43070</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1312847319000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.2875959851600471</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>377569618072.5317</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>43101</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1296258294000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.2991683120923831</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>387799405851.7322</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>43132</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1303824041000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.2920987293705272</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>380845345698.8462</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>43160</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1310701665000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.2927400468384075</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>383694866803.2787</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>43191</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1313095269000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.2850708401037658</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>374325171470.1104</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>43221</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1331452952000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.2708999295660183</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>360690510917.2672</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>43252</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1339105636000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.2674583433630212</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>358154974992.6449</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>43282</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1343164219000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.2733734281027884</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>367185407053.0345</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>43313</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1352880016000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.2700367249945993</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>365327288831.2811</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>43344</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1359313764000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.2712085050987199</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>368657453894.5541</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>43374</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1380484551000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.2606542421477909</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>359829154437.6384</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>43405</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1395254167000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.2639009843506716</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>368208948090.6763</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>43435</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1428233205000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.2674368848951648</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>381962239249.0372</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>43466</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1410808436000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.2686727565824825</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>379045791509.9409</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>43497</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1430989398000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.2642566460546483</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>378148458855.2402</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>43525</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1442834344000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.2607765926930399</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>376257424048.8174</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>43556</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1453094839000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.2618212284652039</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>380451075823.4277</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>43586</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1467430917000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.2609875769913352</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>382981239430.0032</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>43617</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1465475351000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.2679456606200263</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>392667761046.0599</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>43647</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1476692523000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.2581777812201482</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>381249199132.5226</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>43678</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1488482189000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.2511426992817319</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>373821434778.241</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>43709</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1495863785000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.2495508085446197</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>373294017019.3651</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>43739</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1511907370000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.2618143736091111</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>395839081031.5486</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>43770</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1530381437000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.2555322737261716</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>391061848264.9359</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>43800</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1552647893000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.2636783124588002</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>409399576268.9518</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>43831</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1546994528000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.2583779035216908</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>399709202904.1676</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>43862</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1569329130000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.2548387507804437</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>399925875052.5605</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>43891</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1617386266000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.2423972114624793</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>392049920736.1118</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>43922</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1666812290000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.2412166970197677</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>402062955145.7552</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>43952</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1712512395000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.2497845608162959</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>427759156477.5381</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>43983</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1739330112000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.252876469844481</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>439835658616.7657</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>44013</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1733221147000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.2669157880688642</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>462624088349.1258</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>44044</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1736424185000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.2716948323642884</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>471777477856.8712</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>44075</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1754840992000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.2591653837980168</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>454794039196.1726</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>44105</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1775038742000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.2529692262936214</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>449030177204.9431</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>44136</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>1783814551000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.2665792286796597</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>475527907113.1335</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>44166</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1814748873000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.2683339147234819</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>486958669332.1169</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>44197</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1812420636000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.2686799752814423</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>486961131680.0559</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>44228</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1829434603000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.2674440373351876</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>489271376267.0162</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>44256</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1856144729000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.2534385272180306</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>470418586421.2706</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>44287</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1854364107000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.2639915522703274</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>489536459081.3094</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>44317</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1866430196000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.2732195647065895</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>509945245706.3545</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>44348</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1869644469000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.2626533238778136</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>491068334252.6199</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>44378</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1887486247000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.2601389141801722</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>491008622824.5883</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>44409</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1895077418000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.2612739718869206</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>495134404034.0701</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>44440</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1907960184000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.2515976450460424</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>480038289136.0137</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>44470</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1930050857000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.2509410288582183</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>484328947804.2661</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>44501</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1963239881000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.2437716347325825</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>478582195163.5708</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>44531</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1974496760000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.2480466327669602</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>489767272727.2727</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>44562</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1952015699000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.2452543287389022</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>478740299946.0441</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>44593</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1975493300000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.239051443870721</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>472244525721.9354</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>44621</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1999267697000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.2383989129009572</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>476623245562.8002</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>44652</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>2002569608000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.2258049948064851</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>452190219934.0649</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>44682</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>2005087708000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.234439104442621</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>470070966592.4276</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>44713</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1989231244000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.2231838968354755</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>443964380742.8006</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>44743</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>2002463392000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.2160340469658018</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>432600270474.6268</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>44774</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>2033757005000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.213031113194082</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>433253518741.4122</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>44805</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>2052450999000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.201995717690785</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>414586312568.1736</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>44835</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>2057872208000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.2096655833944858</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>431464977041.6186</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>44866</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>2068678071000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.2230450104831155</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>461408322032.3862</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>44896</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>2078248384000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.2284983091125126</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>474876241659.8117</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>44927</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>2082183969000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.2308455873865971</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>480662981370.7611</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>44958</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>2118202312000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.2250528874285457</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>476707546473.4213</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>44986</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>2121975673000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.2319647413593134</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>492223538158.2</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>45017</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>2135028349000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.240610187435336</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>513709571232.6459</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>45047</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>2140971740000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.2359826316783085</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>505232145554.0873</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>45078</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>2139841737000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.2462544695186218</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>526945591798.7412</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>45108</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>2158437380000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.2498513384536201</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>539288468361.3251</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>45139</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>2182060980000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.2427255162771731</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>529641877918.7744</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>45170</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>2225679570000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.2288434253283903</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>509332136482.2189</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>45200</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>2230677980000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.237925291458482</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>530734708541.5179</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>45231</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>2230480530000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.2501626056937009</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>557982821333.8671</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B368">
+        <v>2259343490000</v>
+      </c>
+      <c r="C368">
+        <v>0.2542523709033587</v>
+      </c>
+      <c r="D368">
+        <v>574443439017.5688</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>